--- a/Data/Serie_historica_2003-2019_subdimensoes_do_IMLEE.xlsx
+++ b/Data/Serie_historica_2003-2019_subdimensoes_do_IMLEE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1108686\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/COVIDBR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1291C262-83CD-4319-B783-A3C16A6AE2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1922FFB-1BAF-5144-A92B-E1A20EE99823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMLEE 2003-2019" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>UF</t>
   </si>
@@ -166,14 +166,47 @@
   <si>
     <t>MÉDIA DAS UF's</t>
   </si>
+  <si>
+    <t>ESPÍRITO SANTO</t>
+  </si>
+  <si>
+    <t>SÃO PAULO</t>
+  </si>
+  <si>
+    <t>GOIÁS</t>
+  </si>
+  <si>
+    <t>PARAÍBA</t>
+  </si>
+  <si>
+    <t>CEARÁ</t>
+  </si>
+  <si>
+    <t>PIAUÍ</t>
+  </si>
+  <si>
+    <t>MARANHÃO</t>
+  </si>
+  <si>
+    <t>RONDÔNIA</t>
+  </si>
+  <si>
+    <t>PARANÁ</t>
+  </si>
+  <si>
+    <t>PARÁ</t>
+  </si>
+  <si>
+    <t>AMAPÁ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -426,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,7 +468,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -444,17 +477,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,15 +513,8 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,10 +536,19 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,15 +564,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -823,13 +849,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -888,7 +916,7 @@
         <v>2018</v>
       </c>
       <c r="S1" s="5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -896,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C2" s="17">
         <v>4.8114852408882705</v>
@@ -1132,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C6" s="17">
         <v>6.4307023560139527</v>
@@ -1191,7 +1219,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C7" s="17">
         <v>7.5961223685643269</v>
@@ -1309,7 +1337,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C9" s="18">
         <v>7.1163924330203612</v>
@@ -1368,7 +1396,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C10" s="18">
         <v>8.0184574970546993</v>
@@ -1427,7 +1455,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C11" s="18">
         <v>6.1560839817134418</v>
@@ -1545,7 +1573,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" s="18">
         <v>6.3545331094075115</v>
@@ -1899,7 +1927,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C19" s="19">
         <v>5.4644537488578946</v>
@@ -2017,7 +2045,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C21" s="19">
         <v>5.6776290440961219</v>
@@ -2076,7 +2104,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C22" s="20">
         <v>7.1551774842414595</v>
@@ -2371,7 +2399,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C27" s="21">
         <v>6.0752024225339145</v>
@@ -2426,77 +2454,24 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="26">
-        <f>AVERAGE(C2:C27)</f>
-        <v>6.3372874141691815</v>
-      </c>
-      <c r="D30" s="26">
-        <f t="shared" ref="D30:S30" si="0">AVERAGE(D2:D27)</f>
-        <v>6.0593665518889619</v>
-      </c>
-      <c r="E30" s="26">
-        <f t="shared" si="0"/>
-        <v>5.9371818351482677</v>
-      </c>
-      <c r="F30" s="26">
-        <f t="shared" si="0"/>
-        <v>5.3941373679914868</v>
-      </c>
-      <c r="G30" s="26">
-        <f t="shared" si="0"/>
-        <v>5.9058963425519782</v>
-      </c>
-      <c r="H30" s="26">
-        <f t="shared" si="0"/>
-        <v>5.8322388586597116</v>
-      </c>
-      <c r="I30" s="26">
-        <f t="shared" si="0"/>
-        <v>5.7839051161608239</v>
-      </c>
-      <c r="J30" s="26">
-        <f t="shared" si="0"/>
-        <v>5.4200032979765496</v>
-      </c>
-      <c r="K30" s="26">
-        <f t="shared" si="0"/>
-        <v>5.0176067764582903</v>
-      </c>
-      <c r="L30" s="26">
-        <f t="shared" si="0"/>
-        <v>5.2993336500774291</v>
-      </c>
-      <c r="M30" s="26">
-        <f t="shared" si="0"/>
-        <v>6.1320054374513102</v>
-      </c>
-      <c r="N30" s="26">
-        <f t="shared" si="0"/>
-        <v>6.1918694814418309</v>
-      </c>
-      <c r="O30" s="26">
-        <f t="shared" si="0"/>
-        <v>5.5043322572898168</v>
-      </c>
-      <c r="P30" s="26">
-        <f t="shared" si="0"/>
-        <v>5.6407539163260996</v>
-      </c>
-      <c r="Q30" s="26">
-        <f t="shared" si="0"/>
-        <v>7.0931452171601688</v>
-      </c>
-      <c r="R30" s="26">
-        <f t="shared" si="0"/>
-        <v>7.6632500448587555</v>
-      </c>
-      <c r="S30" s="26">
-        <f t="shared" si="0"/>
-        <v>6.3748471745082655</v>
-      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P27">
@@ -2516,71 +2491,71 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="32"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
       <c r="S1" s="23"/>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="35"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="32"/>
       <c r="AJ1" s="24"/>
-      <c r="AK1" s="36" t="s">
+      <c r="AK1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -6135,8 +6110,8 @@
         <v>5.8427312378014165</v>
       </c>
     </row>
-    <row r="19" spans="1:53" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>31</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -6347,8 +6322,8 @@
         <v>7.7290761967871129</v>
       </c>
     </row>
-    <row r="20" spans="1:53" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>32</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -6559,8 +6534,8 @@
         <v>7.4825850888557772</v>
       </c>
     </row>
-    <row r="21" spans="1:53" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>33</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -6771,8 +6746,8 @@
         <v>7.7788446661013451</v>
       </c>
     </row>
-    <row r="22" spans="1:53" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>35</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -6983,8 +6958,8 @@
         <v>6.087401087145385</v>
       </c>
     </row>
-    <row r="23" spans="1:53" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
         <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -7195,8 +7170,8 @@
         <v>5.9772136002473149</v>
       </c>
     </row>
-    <row r="24" spans="1:53" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
         <v>42</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -7407,8 +7382,8 @@
         <v>7.6301401634435289</v>
       </c>
     </row>
-    <row r="25" spans="1:53" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
         <v>43</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -8481,16 +8456,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:GG29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="155" width="9.140625" style="1" customWidth="1"/>
-    <col min="156" max="168" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="155" width="9.1640625" style="1" customWidth="1"/>
+    <col min="156" max="168" width="9.1640625" style="1"/>
     <col min="169" max="172" width="9" style="1" customWidth="1"/>
-    <col min="173" max="16384" width="9.140625" style="1"/>
+    <col min="173" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:189" x14ac:dyDescent="0.2">
@@ -8532,139 +8507,139 @@
       <c r="AH1" s="42"/>
       <c r="AI1" s="42"/>
       <c r="AJ1" s="43"/>
-      <c r="AK1" s="44" t="s">
+      <c r="AK1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="44" t="s">
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="38"/>
-      <c r="BL1" s="38"/>
-      <c r="BM1" s="38"/>
-      <c r="BN1" s="38"/>
-      <c r="BO1" s="38"/>
-      <c r="BP1" s="38"/>
-      <c r="BQ1" s="38"/>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="44" t="s">
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="37"/>
+      <c r="BS1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="BT1" s="38"/>
-      <c r="BU1" s="38"/>
-      <c r="BV1" s="38"/>
-      <c r="BW1" s="38"/>
-      <c r="BX1" s="38"/>
-      <c r="BY1" s="38"/>
-      <c r="BZ1" s="38"/>
-      <c r="CA1" s="38"/>
-      <c r="CB1" s="38"/>
-      <c r="CC1" s="38"/>
-      <c r="CD1" s="38"/>
-      <c r="CE1" s="38"/>
-      <c r="CF1" s="38"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="36"/>
+      <c r="CE1" s="36"/>
+      <c r="CF1" s="36"/>
       <c r="CG1" s="22"/>
       <c r="CH1" s="22"/>
-      <c r="CI1" s="27"/>
-      <c r="CJ1" s="44" t="s">
+      <c r="CI1" s="22"/>
+      <c r="CJ1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="CK1" s="38"/>
-      <c r="CL1" s="38"/>
-      <c r="CM1" s="38"/>
-      <c r="CN1" s="38"/>
-      <c r="CO1" s="38"/>
-      <c r="CP1" s="38"/>
-      <c r="CQ1" s="38"/>
-      <c r="CR1" s="38"/>
-      <c r="CS1" s="38"/>
-      <c r="CT1" s="38"/>
-      <c r="CU1" s="38"/>
-      <c r="CV1" s="38"/>
-      <c r="CW1" s="38"/>
-      <c r="CX1" s="38"/>
-      <c r="CY1" s="38"/>
-      <c r="CZ1" s="45"/>
-      <c r="DA1" s="44" t="s">
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="36"/>
+      <c r="CM1" s="36"/>
+      <c r="CN1" s="36"/>
+      <c r="CO1" s="36"/>
+      <c r="CP1" s="36"/>
+      <c r="CQ1" s="36"/>
+      <c r="CR1" s="36"/>
+      <c r="CS1" s="36"/>
+      <c r="CT1" s="36"/>
+      <c r="CU1" s="36"/>
+      <c r="CV1" s="36"/>
+      <c r="CW1" s="36"/>
+      <c r="CX1" s="36"/>
+      <c r="CY1" s="36"/>
+      <c r="CZ1" s="37"/>
+      <c r="DA1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="DB1" s="38"/>
-      <c r="DC1" s="38"/>
-      <c r="DD1" s="38"/>
-      <c r="DE1" s="38"/>
-      <c r="DF1" s="38"/>
-      <c r="DG1" s="38"/>
-      <c r="DH1" s="38"/>
-      <c r="DI1" s="38"/>
-      <c r="DJ1" s="38"/>
-      <c r="DK1" s="38"/>
-      <c r="DL1" s="38"/>
-      <c r="DM1" s="38"/>
-      <c r="DN1" s="38"/>
-      <c r="DO1" s="38"/>
-      <c r="DP1" s="38"/>
-      <c r="DQ1" s="45"/>
-      <c r="DR1" s="38" t="s">
+      <c r="DB1" s="36"/>
+      <c r="DC1" s="36"/>
+      <c r="DD1" s="36"/>
+      <c r="DE1" s="36"/>
+      <c r="DF1" s="36"/>
+      <c r="DG1" s="36"/>
+      <c r="DH1" s="36"/>
+      <c r="DI1" s="36"/>
+      <c r="DJ1" s="36"/>
+      <c r="DK1" s="36"/>
+      <c r="DL1" s="36"/>
+      <c r="DM1" s="36"/>
+      <c r="DN1" s="36"/>
+      <c r="DO1" s="36"/>
+      <c r="DP1" s="36"/>
+      <c r="DQ1" s="37"/>
+      <c r="DR1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="DS1" s="38"/>
-      <c r="DT1" s="38"/>
-      <c r="DU1" s="38"/>
-      <c r="DV1" s="38"/>
-      <c r="DW1" s="38"/>
-      <c r="DX1" s="38"/>
-      <c r="DY1" s="38"/>
-      <c r="DZ1" s="38"/>
-      <c r="EA1" s="38"/>
-      <c r="EB1" s="38"/>
-      <c r="EC1" s="38"/>
-      <c r="ED1" s="38"/>
-      <c r="EE1" s="38"/>
+      <c r="DS1" s="36"/>
+      <c r="DT1" s="36"/>
+      <c r="DU1" s="36"/>
+      <c r="DV1" s="36"/>
+      <c r="DW1" s="36"/>
+      <c r="DX1" s="36"/>
+      <c r="DY1" s="36"/>
+      <c r="DZ1" s="36"/>
+      <c r="EA1" s="36"/>
+      <c r="EB1" s="36"/>
+      <c r="EC1" s="36"/>
+      <c r="ED1" s="36"/>
+      <c r="EE1" s="36"/>
       <c r="EF1" s="22"/>
       <c r="EG1" s="22"/>
-      <c r="EH1" s="27"/>
-      <c r="EI1" s="44" t="s">
+      <c r="EH1" s="22"/>
+      <c r="EI1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="EJ1" s="38"/>
-      <c r="EK1" s="38"/>
-      <c r="EL1" s="38"/>
-      <c r="EM1" s="38"/>
-      <c r="EN1" s="38"/>
-      <c r="EO1" s="38"/>
-      <c r="EP1" s="38"/>
-      <c r="EQ1" s="38"/>
-      <c r="ER1" s="38"/>
-      <c r="ES1" s="38"/>
-      <c r="ET1" s="38"/>
-      <c r="EU1" s="38"/>
-      <c r="EV1" s="38"/>
-      <c r="EW1" s="38"/>
-      <c r="EX1" s="38"/>
-      <c r="EY1" s="45"/>
+      <c r="EJ1" s="36"/>
+      <c r="EK1" s="36"/>
+      <c r="EL1" s="36"/>
+      <c r="EM1" s="36"/>
+      <c r="EN1" s="36"/>
+      <c r="EO1" s="36"/>
+      <c r="EP1" s="36"/>
+      <c r="EQ1" s="36"/>
+      <c r="ER1" s="36"/>
+      <c r="ES1" s="36"/>
+      <c r="ET1" s="36"/>
+      <c r="EU1" s="36"/>
+      <c r="EV1" s="36"/>
+      <c r="EW1" s="36"/>
+      <c r="EX1" s="36"/>
+      <c r="EY1" s="37"/>
       <c r="EZ1" s="39" t="s">
         <v>36</v>
       </c>
@@ -8684,25 +8659,25 @@
       <c r="FN1" s="40"/>
       <c r="FO1" s="40"/>
       <c r="FP1" s="40"/>
-      <c r="FQ1" s="46" t="s">
+      <c r="FQ1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="FR1" s="46"/>
-      <c r="FS1" s="46"/>
-      <c r="FT1" s="46"/>
-      <c r="FU1" s="46"/>
-      <c r="FV1" s="46"/>
-      <c r="FW1" s="46"/>
-      <c r="FX1" s="46"/>
-      <c r="FY1" s="46"/>
-      <c r="FZ1" s="46"/>
-      <c r="GA1" s="46"/>
-      <c r="GB1" s="46"/>
-      <c r="GC1" s="46"/>
-      <c r="GD1" s="46"/>
-      <c r="GE1" s="46"/>
-      <c r="GF1" s="46"/>
-      <c r="GG1" s="46"/>
+      <c r="FR1" s="38"/>
+      <c r="FS1" s="38"/>
+      <c r="FT1" s="38"/>
+      <c r="FU1" s="38"/>
+      <c r="FV1" s="38"/>
+      <c r="FW1" s="38"/>
+      <c r="FX1" s="38"/>
+      <c r="FY1" s="38"/>
+      <c r="FZ1" s="38"/>
+      <c r="GA1" s="38"/>
+      <c r="GB1" s="38"/>
+      <c r="GC1" s="38"/>
+      <c r="GD1" s="38"/>
+      <c r="GE1" s="38"/>
+      <c r="GF1" s="38"/>
+      <c r="GG1" s="38"/>
     </row>
     <row r="2" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">

--- a/Data/Serie_historica_2003-2019_subdimensoes_do_IMLEE.xlsx
+++ b/Data/Serie_historica_2003-2019_subdimensoes_do_IMLEE.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/COVIDBR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1922FFB-1BAF-5144-A92B-E1A20EE99823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5841583-DF1D-6A43-8211-8C53E35C4C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMLEE 2003-2019" sheetId="3" r:id="rId1"/>
-    <sheet name="Dimensões 1, 2 e 3" sheetId="5" r:id="rId2"/>
-    <sheet name="1A 1B 1C 2A 2B 2C 3A" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Dimensões 1, 2 e 3" sheetId="5" r:id="rId3"/>
+    <sheet name="1A 1B 1C 2A 2B 2C 3A" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>UF</t>
   </si>
@@ -199,6 +200,84 @@
   <si>
     <t>AMAPÁ</t>
   </si>
+  <si>
+    <t>Acre</t>
+  </si>
+  <si>
+    <t>Alagoas</t>
+  </si>
+  <si>
+    <t>Amapá</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Goiás</t>
+  </si>
+  <si>
+    <t>Maranhão</t>
+  </si>
+  <si>
+    <t>Pará</t>
+  </si>
+  <si>
+    <t>Paraíba</t>
+  </si>
+  <si>
+    <t>Paraná</t>
+  </si>
+  <si>
+    <t>Pernambuco</t>
+  </si>
+  <si>
+    <t>Piauí</t>
+  </si>
+  <si>
+    <t>Rondônia</t>
+  </si>
+  <si>
+    <t>Roraima</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+  <si>
+    <t>Tocantins</t>
+  </si>
+  <si>
+    <t>Mato Grosso do Sul</t>
+  </si>
+  <si>
+    <t>Mato Grosso</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t>Rio Grande do Sul</t>
+  </si>
+  <si>
+    <t>Santa Catarina</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Minas Gerais</t>
+  </si>
+  <si>
+    <t>Espírito Santo</t>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +287,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +333,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -459,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,21 +574,6 @@
     <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,7 +583,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,6 +614,15 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,15 +635,8 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -860,7 +931,7 @@
     <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -918,1564 +989,1725 @@
       <c r="S1" s="5">
         <v>2019</v>
       </c>
+      <c r="T1" s="5">
+        <v>2020</v>
+      </c>
+      <c r="U1" s="5">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5.84</v>
+      </c>
+      <c r="D2">
+        <v>6.05</v>
+      </c>
+      <c r="E2">
+        <v>5.98</v>
+      </c>
+      <c r="F2">
+        <v>5.52</v>
+      </c>
+      <c r="G2">
+        <v>6.13</v>
+      </c>
+      <c r="H2">
+        <v>5.74</v>
+      </c>
+      <c r="I2">
+        <v>6.29</v>
+      </c>
+      <c r="J2">
+        <v>4.74</v>
+      </c>
+      <c r="K2">
+        <v>4.05</v>
+      </c>
+      <c r="L2">
+        <v>5.01</v>
+      </c>
+      <c r="M2">
+        <v>5.59</v>
+      </c>
+      <c r="N2">
+        <v>5.65</v>
+      </c>
+      <c r="O2">
+        <v>4.29</v>
+      </c>
+      <c r="P2">
+        <v>4.79</v>
+      </c>
+      <c r="Q2">
+        <v>6.51</v>
+      </c>
+      <c r="R2">
+        <v>7.15</v>
+      </c>
+      <c r="S2">
+        <v>5.96</v>
+      </c>
+      <c r="T2">
+        <v>3.11</v>
+      </c>
+      <c r="U2">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>6.46</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>6.15</v>
+      </c>
+      <c r="F3">
+        <v>5.58</v>
+      </c>
+      <c r="G3">
+        <v>6.72</v>
+      </c>
+      <c r="H3">
+        <v>6.37</v>
+      </c>
+      <c r="I3">
+        <v>5.74</v>
+      </c>
+      <c r="J3">
+        <v>5.81</v>
+      </c>
+      <c r="K3">
+        <v>5.38</v>
+      </c>
+      <c r="L3">
+        <v>5.2</v>
+      </c>
+      <c r="M3">
+        <v>6.55</v>
+      </c>
+      <c r="N3">
+        <v>6.55</v>
+      </c>
+      <c r="O3">
+        <v>5.68</v>
+      </c>
+      <c r="P3">
+        <v>5.5</v>
+      </c>
+      <c r="Q3">
+        <v>6.94</v>
+      </c>
+      <c r="R3">
+        <v>7.86</v>
+      </c>
+      <c r="S3">
+        <v>6.56</v>
+      </c>
+      <c r="T3">
+        <v>3.01</v>
+      </c>
+      <c r="U3">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>7.6</v>
+      </c>
+      <c r="D4">
+        <v>6.75</v>
+      </c>
+      <c r="E4">
+        <v>7.31</v>
+      </c>
+      <c r="F4">
+        <v>6.09</v>
+      </c>
+      <c r="G4">
+        <v>6.29</v>
+      </c>
+      <c r="H4">
+        <v>5.85</v>
+      </c>
+      <c r="I4">
+        <v>5.77</v>
+      </c>
+      <c r="J4">
+        <v>6.64</v>
+      </c>
+      <c r="K4">
+        <v>5.63</v>
+      </c>
+      <c r="L4">
+        <v>6.09</v>
+      </c>
+      <c r="M4">
+        <v>6.89</v>
+      </c>
+      <c r="N4">
+        <v>7.38</v>
+      </c>
+      <c r="O4">
+        <v>6.03</v>
+      </c>
+      <c r="P4">
+        <v>6.44</v>
+      </c>
+      <c r="Q4">
+        <v>7.94</v>
+      </c>
+      <c r="R4">
+        <v>7.71</v>
+      </c>
+      <c r="S4">
+        <v>6.2</v>
+      </c>
+      <c r="T4">
+        <v>4.37</v>
+      </c>
+      <c r="U4">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4.7</v>
+      </c>
+      <c r="D5">
+        <v>4.7</v>
+      </c>
+      <c r="E5">
+        <v>4.84</v>
+      </c>
+      <c r="F5">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G5">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H5">
+        <v>4.22</v>
+      </c>
+      <c r="I5">
+        <v>4.74</v>
+      </c>
+      <c r="J5">
+        <v>4.01</v>
+      </c>
+      <c r="K5">
+        <v>3.5</v>
+      </c>
+      <c r="L5">
+        <v>3.51</v>
+      </c>
+      <c r="M5">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="N5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O5">
+        <v>4.34</v>
+      </c>
+      <c r="P5">
+        <v>4.88</v>
+      </c>
+      <c r="Q5">
+        <v>7.37</v>
+      </c>
+      <c r="R5">
+        <v>7.15</v>
+      </c>
+      <c r="S5">
+        <v>5.81</v>
+      </c>
+      <c r="T5">
+        <v>3.66</v>
+      </c>
+      <c r="U5">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6.24</v>
+      </c>
+      <c r="D6">
+        <v>5.73</v>
+      </c>
+      <c r="E6">
+        <v>5.71</v>
+      </c>
+      <c r="F6">
+        <v>5.21</v>
+      </c>
+      <c r="G6">
+        <v>5.91</v>
+      </c>
+      <c r="H6">
+        <v>5.9</v>
+      </c>
+      <c r="I6">
+        <v>5.95</v>
+      </c>
+      <c r="J6">
+        <v>5.47</v>
+      </c>
+      <c r="K6">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="L6">
+        <v>5.31</v>
+      </c>
+      <c r="M6">
+        <v>6.34</v>
+      </c>
+      <c r="N6">
+        <v>6.38</v>
+      </c>
+      <c r="O6">
+        <v>5.68</v>
+      </c>
+      <c r="P6">
+        <v>5.97</v>
+      </c>
+      <c r="Q6">
+        <v>7.65</v>
+      </c>
+      <c r="R6">
+        <v>7.52</v>
+      </c>
+      <c r="S6">
+        <v>6.85</v>
+      </c>
+      <c r="T6">
+        <v>4.37</v>
+      </c>
+      <c r="U6">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>6.16</v>
+      </c>
+      <c r="D7">
+        <v>5.73</v>
+      </c>
+      <c r="E7">
+        <v>5.76</v>
+      </c>
+      <c r="F7">
+        <v>5.14</v>
+      </c>
+      <c r="G7">
+        <v>5.81</v>
+      </c>
+      <c r="H7">
+        <v>5.7</v>
+      </c>
+      <c r="I7">
+        <v>5.6</v>
+      </c>
+      <c r="J7">
+        <v>4.84</v>
+      </c>
+      <c r="K7">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="L7">
+        <v>5.05</v>
+      </c>
+      <c r="M7">
+        <v>5.88</v>
+      </c>
+      <c r="N7">
+        <v>5.98</v>
+      </c>
+      <c r="O7">
+        <v>5.3</v>
+      </c>
+      <c r="P7">
+        <v>5.59</v>
+      </c>
+      <c r="Q7">
+        <v>7.39</v>
+      </c>
+      <c r="R7">
+        <v>7.69</v>
+      </c>
+      <c r="S7">
+        <v>6.6</v>
+      </c>
+      <c r="T7">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="U7">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>5.46</v>
+      </c>
+      <c r="D8">
+        <v>4.91</v>
+      </c>
+      <c r="E8">
+        <v>4.38</v>
+      </c>
+      <c r="F8">
+        <v>3.97</v>
+      </c>
+      <c r="G8">
+        <v>3.91</v>
+      </c>
+      <c r="H8">
+        <v>4.42</v>
+      </c>
+      <c r="I8">
+        <v>4.76</v>
+      </c>
+      <c r="J8">
+        <v>4.67</v>
+      </c>
+      <c r="K8">
+        <v>4.08</v>
+      </c>
+      <c r="L8">
+        <v>4.91</v>
+      </c>
+      <c r="M8">
+        <v>5.86</v>
+      </c>
+      <c r="N8">
+        <v>6.08</v>
+      </c>
+      <c r="O8">
+        <v>5.55</v>
+      </c>
+      <c r="P8">
+        <v>6.3</v>
+      </c>
+      <c r="Q8">
+        <v>7.79</v>
+      </c>
+      <c r="R8">
+        <v>8.34</v>
+      </c>
+      <c r="S8">
+        <v>7.29</v>
+      </c>
+      <c r="T8">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="U8">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>52</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>6.08</v>
+      </c>
+      <c r="D9">
+        <v>5.93</v>
+      </c>
+      <c r="E9">
+        <v>6.07</v>
+      </c>
+      <c r="F9">
+        <v>5.16</v>
+      </c>
+      <c r="G9">
+        <v>6.13</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>5.79</v>
+      </c>
+      <c r="J9">
+        <v>5.58</v>
+      </c>
+      <c r="K9">
+        <v>5.52</v>
+      </c>
+      <c r="L9">
+        <v>5.67</v>
+      </c>
+      <c r="M9">
+        <v>6.32</v>
+      </c>
+      <c r="N9">
+        <v>6.32</v>
+      </c>
+      <c r="O9">
+        <v>5.81</v>
+      </c>
+      <c r="P9">
+        <v>5.54</v>
+      </c>
+      <c r="Q9">
+        <v>7.42</v>
+      </c>
+      <c r="R9">
+        <v>7.84</v>
+      </c>
+      <c r="S9">
+        <v>6.13</v>
+      </c>
+      <c r="T9">
+        <v>4.22</v>
+      </c>
+      <c r="U9">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>7.12</v>
+      </c>
+      <c r="D10">
+        <v>6.86</v>
+      </c>
+      <c r="E10">
+        <v>6.26</v>
+      </c>
+      <c r="F10">
+        <v>6.07</v>
+      </c>
+      <c r="G10">
+        <v>6.34</v>
+      </c>
+      <c r="H10">
+        <v>6.14</v>
+      </c>
+      <c r="I10">
+        <v>6.1</v>
+      </c>
+      <c r="J10">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="K10">
+        <v>4.75</v>
+      </c>
+      <c r="L10">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="M10">
+        <v>6.37</v>
+      </c>
+      <c r="N10">
+        <v>6.2</v>
+      </c>
+      <c r="O10">
+        <v>5.74</v>
+      </c>
+      <c r="P10">
+        <v>5.44</v>
+      </c>
+      <c r="Q10">
+        <v>7.03</v>
+      </c>
+      <c r="R10">
+        <v>6.81</v>
+      </c>
+      <c r="S10">
+        <v>6.72</v>
+      </c>
+      <c r="T10">
+        <v>3.86</v>
+      </c>
+      <c r="U10">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>51</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>6.52</v>
+      </c>
+      <c r="D11">
+        <v>6.46</v>
+      </c>
+      <c r="E11">
+        <v>6.16</v>
+      </c>
+      <c r="F11">
+        <v>5.57</v>
+      </c>
+      <c r="G11">
+        <v>5.73</v>
+      </c>
+      <c r="H11">
+        <v>6.71</v>
+      </c>
+      <c r="I11">
+        <v>6.27</v>
+      </c>
+      <c r="J11">
+        <v>6.1</v>
+      </c>
+      <c r="K11">
+        <v>5.7</v>
+      </c>
+      <c r="L11">
+        <v>5.69</v>
+      </c>
+      <c r="M11">
+        <v>6.71</v>
+      </c>
+      <c r="N11">
+        <v>6.76</v>
+      </c>
+      <c r="O11">
+        <v>5.3</v>
+      </c>
+      <c r="P11">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="Q11">
+        <v>6.54</v>
+      </c>
+      <c r="R11">
+        <v>7.57</v>
+      </c>
+      <c r="S11">
+        <v>5.52</v>
+      </c>
+      <c r="T11">
+        <v>4.09</v>
+      </c>
+      <c r="U11">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>50</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C12">
+        <v>6.52</v>
+      </c>
+      <c r="D12">
+        <v>5.57</v>
+      </c>
+      <c r="E12">
+        <v>6.04</v>
+      </c>
+      <c r="F12">
+        <v>5.83</v>
+      </c>
+      <c r="G12">
+        <v>6.61</v>
+      </c>
+      <c r="H12">
+        <v>5.64</v>
+      </c>
+      <c r="I12">
+        <v>5.86</v>
+      </c>
+      <c r="J12">
+        <v>5.67</v>
+      </c>
+      <c r="K12">
+        <v>5.81</v>
+      </c>
+      <c r="L12">
+        <v>6.03</v>
+      </c>
+      <c r="M12">
+        <v>6.61</v>
+      </c>
+      <c r="N12">
+        <v>6.72</v>
+      </c>
+      <c r="O12">
+        <v>5.52</v>
+      </c>
+      <c r="P12">
+        <v>5.55</v>
+      </c>
+      <c r="Q12">
+        <v>6.46</v>
+      </c>
+      <c r="R12">
+        <v>7.5</v>
+      </c>
+      <c r="S12">
+        <v>5.96</v>
+      </c>
+      <c r="T12">
+        <v>3.89</v>
+      </c>
+      <c r="U12">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>6.11</v>
+      </c>
+      <c r="D13">
+        <v>5.76</v>
+      </c>
+      <c r="E13">
+        <v>5.68</v>
+      </c>
+      <c r="F13">
+        <v>5.24</v>
+      </c>
+      <c r="G13">
+        <v>5.63</v>
+      </c>
+      <c r="H13">
+        <v>5.54</v>
+      </c>
+      <c r="I13">
+        <v>5.86</v>
+      </c>
+      <c r="J13">
+        <v>5.38</v>
+      </c>
+      <c r="K13">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="L13">
+        <v>5.23</v>
+      </c>
+      <c r="M13">
+        <v>5.93</v>
+      </c>
+      <c r="N13">
+        <v>5.94</v>
+      </c>
+      <c r="O13">
+        <v>6.02</v>
+      </c>
+      <c r="P13">
+        <v>5.29</v>
+      </c>
+      <c r="Q13">
+        <v>6.89</v>
+      </c>
+      <c r="R13">
+        <v>7.26</v>
+      </c>
+      <c r="S13">
+        <v>7.12</v>
+      </c>
+      <c r="T13">
+        <v>4.5</v>
+      </c>
+      <c r="U13">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>6.43</v>
+      </c>
+      <c r="D14">
+        <v>7.28</v>
+      </c>
+      <c r="E14">
+        <v>7.03</v>
+      </c>
+      <c r="F14">
+        <v>6.33</v>
+      </c>
+      <c r="G14">
+        <v>6.85</v>
+      </c>
+      <c r="H14">
+        <v>6.57</v>
+      </c>
+      <c r="I14">
+        <v>6.32</v>
+      </c>
+      <c r="J14">
+        <v>5.74</v>
+      </c>
+      <c r="K14">
+        <v>5.78</v>
+      </c>
+      <c r="L14">
+        <v>5.79</v>
+      </c>
+      <c r="M14">
+        <v>6.36</v>
+      </c>
+      <c r="N14">
+        <v>6.29</v>
+      </c>
+      <c r="O14">
+        <v>5.62</v>
+      </c>
+      <c r="P14">
+        <v>5.9</v>
+      </c>
+      <c r="Q14">
+        <v>7.5</v>
+      </c>
+      <c r="R14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S14">
+        <v>7.13</v>
+      </c>
+      <c r="T14">
+        <v>4.82</v>
+      </c>
+      <c r="U14">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>25</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>6.35</v>
+      </c>
+      <c r="D15">
+        <v>6.11</v>
+      </c>
+      <c r="E15">
+        <v>5.95</v>
+      </c>
+      <c r="F15">
+        <v>4.8</v>
+      </c>
+      <c r="G15">
+        <v>5.78</v>
+      </c>
+      <c r="H15">
+        <v>5.96</v>
+      </c>
+      <c r="I15">
+        <v>5.85</v>
+      </c>
+      <c r="J15">
+        <v>4.93</v>
+      </c>
+      <c r="K15">
+        <v>5.07</v>
+      </c>
+      <c r="L15">
+        <v>5.42</v>
+      </c>
+      <c r="M15">
+        <v>6.27</v>
+      </c>
+      <c r="N15">
+        <v>6.29</v>
+      </c>
+      <c r="O15">
+        <v>5.91</v>
+      </c>
+      <c r="P15">
+        <v>6.23</v>
+      </c>
+      <c r="Q15">
+        <v>7.63</v>
+      </c>
+      <c r="R15">
+        <v>7.77</v>
+      </c>
+      <c r="S15">
+        <v>6.69</v>
+      </c>
+      <c r="T15">
+        <v>3.59</v>
+      </c>
+      <c r="U15">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>41</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>7.16</v>
+      </c>
+      <c r="D16">
+        <v>6.97</v>
+      </c>
+      <c r="E16">
+        <v>6.66</v>
+      </c>
+      <c r="F16">
+        <v>6.17</v>
+      </c>
+      <c r="G16">
+        <v>6.76</v>
+      </c>
+      <c r="H16">
+        <v>6.61</v>
+      </c>
+      <c r="I16">
+        <v>6.34</v>
+      </c>
+      <c r="J16">
+        <v>6.54</v>
+      </c>
+      <c r="K16">
+        <v>5.54</v>
+      </c>
+      <c r="L16">
+        <v>5.51</v>
+      </c>
+      <c r="M16">
+        <v>6.34</v>
+      </c>
+      <c r="N16">
+        <v>6.35</v>
+      </c>
+      <c r="O16">
+        <v>5.9</v>
+      </c>
+      <c r="P16">
+        <v>5.46</v>
+      </c>
+      <c r="Q16">
+        <v>6.75</v>
+      </c>
+      <c r="R16">
+        <v>7.33</v>
+      </c>
+      <c r="S16">
+        <v>6.71</v>
+      </c>
+      <c r="T16">
+        <v>4.7</v>
+      </c>
+      <c r="U16">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>26</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>6.3</v>
+      </c>
+      <c r="D17">
+        <v>6.18</v>
+      </c>
+      <c r="E17">
+        <v>5.87</v>
+      </c>
+      <c r="F17">
+        <v>6.06</v>
+      </c>
+      <c r="G17">
+        <v>6.1</v>
+      </c>
+      <c r="H17">
+        <v>6.08</v>
+      </c>
+      <c r="I17">
+        <v>5.92</v>
+      </c>
+      <c r="J17">
+        <v>6.23</v>
+      </c>
+      <c r="K17">
+        <v>4.87</v>
+      </c>
+      <c r="L17">
+        <v>5.34</v>
+      </c>
+      <c r="M17">
+        <v>5.81</v>
+      </c>
+      <c r="N17">
+        <v>6.26</v>
+      </c>
+      <c r="O17">
+        <v>5.28</v>
+      </c>
+      <c r="P17">
+        <v>6.1</v>
+      </c>
+      <c r="Q17">
+        <v>7.41</v>
+      </c>
+      <c r="R17">
+        <v>7.58</v>
+      </c>
+      <c r="S17">
+        <v>6.79</v>
+      </c>
+      <c r="T17">
+        <v>3.59</v>
+      </c>
+      <c r="U17">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>8.02</v>
+      </c>
+      <c r="D18">
+        <v>7.36</v>
+      </c>
+      <c r="E18">
+        <v>7.17</v>
+      </c>
+      <c r="F18">
+        <v>6.03</v>
+      </c>
+      <c r="G18">
+        <v>7.28</v>
+      </c>
+      <c r="H18">
+        <v>7.17</v>
+      </c>
+      <c r="I18">
+        <v>6.87</v>
+      </c>
+      <c r="J18">
+        <v>5.81</v>
+      </c>
+      <c r="K18">
+        <v>5.8</v>
+      </c>
+      <c r="L18">
+        <v>6.45</v>
+      </c>
+      <c r="M18">
+        <v>7.14</v>
+      </c>
+      <c r="N18">
+        <v>6.84</v>
+      </c>
+      <c r="O18">
+        <v>5.48</v>
+      </c>
+      <c r="P18">
+        <v>5.79</v>
+      </c>
+      <c r="Q18">
+        <v>6.34</v>
+      </c>
+      <c r="R18">
+        <v>6.96</v>
+      </c>
+      <c r="S18">
+        <v>5.45</v>
+      </c>
+      <c r="T18">
+        <v>2.69</v>
+      </c>
+      <c r="U18">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>33</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>5.94</v>
+      </c>
+      <c r="D19">
+        <v>5.46</v>
+      </c>
+      <c r="E19">
+        <v>5.66</v>
+      </c>
+      <c r="F19">
+        <v>5.66</v>
+      </c>
+      <c r="G19">
+        <v>5.26</v>
+      </c>
+      <c r="H19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I19">
+        <v>5.44</v>
+      </c>
+      <c r="J19">
+        <v>5.37</v>
+      </c>
+      <c r="K19">
+        <v>4.43</v>
+      </c>
+      <c r="L19">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="M19">
+        <v>5.8</v>
+      </c>
+      <c r="N19">
+        <v>5.91</v>
+      </c>
+      <c r="O19">
+        <v>5.95</v>
+      </c>
+      <c r="P19">
+        <v>6.07</v>
+      </c>
+      <c r="Q19">
+        <v>6.69</v>
+      </c>
+      <c r="R19">
+        <v>8.01</v>
+      </c>
+      <c r="S19">
+        <v>7.63</v>
+      </c>
+      <c r="T19">
+        <v>4.82</v>
+      </c>
+      <c r="U19">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>5.82</v>
+      </c>
+      <c r="D20">
+        <v>5.72</v>
+      </c>
+      <c r="E20">
+        <v>5.52</v>
+      </c>
+      <c r="F20">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G20">
+        <v>5.23</v>
+      </c>
+      <c r="H20">
+        <v>5.69</v>
+      </c>
+      <c r="I20">
+        <v>5.24</v>
+      </c>
+      <c r="J20">
+        <v>4.97</v>
+      </c>
+      <c r="K20">
+        <v>4.84</v>
+      </c>
+      <c r="L20">
+        <v>5.42</v>
+      </c>
+      <c r="M20">
+        <v>5.73</v>
+      </c>
+      <c r="N20">
+        <v>5.83</v>
+      </c>
+      <c r="O20">
+        <v>5.26</v>
+      </c>
+      <c r="P20">
+        <v>5.98</v>
+      </c>
+      <c r="Q20">
+        <v>7.09</v>
+      </c>
+      <c r="R20">
+        <v>7.66</v>
+      </c>
+      <c r="S20">
+        <v>6.6</v>
+      </c>
+      <c r="T20">
+        <v>3.92</v>
+      </c>
+      <c r="U20">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>43</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>5.93</v>
+      </c>
+      <c r="D21">
+        <v>5.73</v>
+      </c>
+      <c r="E21">
+        <v>5.57</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>5.69</v>
+      </c>
+      <c r="H21">
+        <v>5.75</v>
+      </c>
+      <c r="I21">
+        <v>5.49</v>
+      </c>
+      <c r="J21">
+        <v>5.44</v>
+      </c>
+      <c r="K21">
+        <v>4.72</v>
+      </c>
+      <c r="L21">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="M21">
+        <v>5.71</v>
+      </c>
+      <c r="N21">
+        <v>5.81</v>
+      </c>
+      <c r="O21">
+        <v>5.32</v>
+      </c>
+      <c r="P21">
+        <v>5.72</v>
+      </c>
+      <c r="Q21">
+        <v>6.61</v>
+      </c>
+      <c r="R21">
+        <v>7.1</v>
+      </c>
+      <c r="S21">
+        <v>7.07</v>
+      </c>
+      <c r="T21">
+        <v>4.37</v>
+      </c>
+      <c r="U21">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>11</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="17">
-        <v>4.8114852408882705</v>
-      </c>
-      <c r="D2" s="17">
-        <v>5.7332426382188526</v>
-      </c>
-      <c r="E2" s="17">
-        <v>5.4803935320569401</v>
-      </c>
-      <c r="F2" s="17">
-        <v>4.3463619721216977</v>
-      </c>
-      <c r="G2" s="17">
-        <v>5.0670668718772971</v>
-      </c>
-      <c r="H2" s="17">
-        <v>4.9750301459226511</v>
-      </c>
-      <c r="I2" s="17">
-        <v>5.2038429773315968</v>
-      </c>
-      <c r="J2" s="17">
-        <v>4.6975222169847966</v>
-      </c>
-      <c r="K2" s="17">
-        <v>4.0422630581752985</v>
-      </c>
-      <c r="L2" s="17">
-        <v>4.4961861716754541</v>
-      </c>
-      <c r="M2" s="17">
-        <v>5.5686904136675954</v>
-      </c>
-      <c r="N2" s="17">
-        <v>5.454014587581427</v>
-      </c>
-      <c r="O2" s="17">
-        <v>5.6643761048856289</v>
-      </c>
-      <c r="P2" s="17">
-        <v>5.5748920750235467</v>
-      </c>
-      <c r="Q2" s="17">
-        <v>6.863255876446952</v>
-      </c>
-      <c r="R2" s="17">
-        <v>8.0871100738065742</v>
-      </c>
-      <c r="S2" s="17">
-        <v>6.0060139734110196</v>
+      <c r="C22">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D22">
+        <v>5.73</v>
+      </c>
+      <c r="E22">
+        <v>5.48</v>
+      </c>
+      <c r="F22">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G22">
+        <v>5.07</v>
+      </c>
+      <c r="H22">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="I22">
+        <v>5.2</v>
+      </c>
+      <c r="J22">
+        <v>4.7</v>
+      </c>
+      <c r="K22">
+        <v>4.04</v>
+      </c>
+      <c r="L22">
+        <v>4.5</v>
+      </c>
+      <c r="M22">
+        <v>5.57</v>
+      </c>
+      <c r="N22">
+        <v>5.45</v>
+      </c>
+      <c r="O22">
+        <v>5.66</v>
+      </c>
+      <c r="P22">
+        <v>5.57</v>
+      </c>
+      <c r="Q22">
+        <v>6.86</v>
+      </c>
+      <c r="R22">
+        <v>8.09</v>
+      </c>
+      <c r="S22">
+        <v>6.01</v>
+      </c>
+      <c r="T22">
+        <v>4.05</v>
+      </c>
+      <c r="U22">
+        <v>3.92</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>12</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17">
-        <v>5.8384011974705254</v>
-      </c>
-      <c r="D3" s="17">
-        <v>6.0488213724085584</v>
-      </c>
-      <c r="E3" s="17">
-        <v>5.9750036924293557</v>
-      </c>
-      <c r="F3" s="17">
-        <v>5.5248816665274871</v>
-      </c>
-      <c r="G3" s="17">
-        <v>6.1298952355721683</v>
-      </c>
-      <c r="H3" s="17">
-        <v>5.7351874849637561</v>
-      </c>
-      <c r="I3" s="17">
-        <v>6.2937441036928359</v>
-      </c>
-      <c r="J3" s="17">
-        <v>4.7387056621271579</v>
-      </c>
-      <c r="K3" s="17">
-        <v>4.0477118130575622</v>
-      </c>
-      <c r="L3" s="17">
-        <v>5.0089211017879922</v>
-      </c>
-      <c r="M3" s="17">
-        <v>5.5915542646503686</v>
-      </c>
-      <c r="N3" s="17">
-        <v>5.6490576877009691</v>
-      </c>
-      <c r="O3" s="17">
-        <v>4.2948328024746338</v>
-      </c>
-      <c r="P3" s="17">
-        <v>4.7898109335662324</v>
-      </c>
-      <c r="Q3" s="17">
-        <v>6.5125339977130663</v>
-      </c>
-      <c r="R3" s="17">
-        <v>7.1541909065397453</v>
-      </c>
-      <c r="S3" s="17">
-        <v>5.9580551160824697</v>
+    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>14</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>7.36</v>
+      </c>
+      <c r="D23">
+        <v>6.89</v>
+      </c>
+      <c r="E23">
+        <v>5.85</v>
+      </c>
+      <c r="F23">
+        <v>5.92</v>
+      </c>
+      <c r="G23">
+        <v>6.36</v>
+      </c>
+      <c r="H23">
+        <v>6.63</v>
+      </c>
+      <c r="I23">
+        <v>6.05</v>
+      </c>
+      <c r="J23">
+        <v>5.69</v>
+      </c>
+      <c r="K23">
+        <v>6.05</v>
+      </c>
+      <c r="L23">
+        <v>5.85</v>
+      </c>
+      <c r="M23">
+        <v>6.34</v>
+      </c>
+      <c r="N23">
+        <v>6.89</v>
+      </c>
+      <c r="O23">
+        <v>5.49</v>
+      </c>
+      <c r="P23">
+        <v>5.37</v>
+      </c>
+      <c r="Q23">
+        <v>7.25</v>
+      </c>
+      <c r="R23">
+        <v>8.92</v>
+      </c>
+      <c r="S23">
+        <v>5.69</v>
+      </c>
+      <c r="T23">
+        <v>3.64</v>
+      </c>
+      <c r="U23">
+        <v>3.59</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="17">
-        <v>4.7036039562652014</v>
-      </c>
-      <c r="D4" s="17">
-        <v>4.7023432827464795</v>
-      </c>
-      <c r="E4" s="17">
-        <v>4.8380920285047919</v>
-      </c>
-      <c r="F4" s="17">
-        <v>4.3126347394955333</v>
-      </c>
-      <c r="G4" s="17">
-        <v>4.5208319122318947</v>
-      </c>
-      <c r="H4" s="17">
-        <v>4.2204133193388236</v>
-      </c>
-      <c r="I4" s="17">
-        <v>4.7425826027556468</v>
-      </c>
-      <c r="J4" s="17">
-        <v>4.0138126733641473</v>
-      </c>
-      <c r="K4" s="17">
-        <v>3.4997661845491428</v>
-      </c>
-      <c r="L4" s="17">
-        <v>3.5146213510705304</v>
-      </c>
-      <c r="M4" s="17">
-        <v>4.8091135769252054</v>
-      </c>
-      <c r="N4" s="17">
-        <v>4.9028130278370492</v>
-      </c>
-      <c r="O4" s="17">
-        <v>4.3381980198770504</v>
-      </c>
-      <c r="P4" s="17">
-        <v>4.8751805380351403</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>7.3654590093566208</v>
-      </c>
-      <c r="R4" s="17">
-        <v>7.1515433983968881</v>
-      </c>
-      <c r="S4" s="17">
-        <v>5.8132258820605038</v>
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>42</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>6.53</v>
+      </c>
+      <c r="D24">
+        <v>5.9</v>
+      </c>
+      <c r="E24">
+        <v>5.87</v>
+      </c>
+      <c r="F24">
+        <v>6.39</v>
+      </c>
+      <c r="G24">
+        <v>6.75</v>
+      </c>
+      <c r="H24">
+        <v>6.62</v>
+      </c>
+      <c r="I24">
+        <v>6.42</v>
+      </c>
+      <c r="J24">
+        <v>6.05</v>
+      </c>
+      <c r="K24">
+        <v>5.6</v>
+      </c>
+      <c r="L24">
+        <v>5.68</v>
+      </c>
+      <c r="M24">
+        <v>6.38</v>
+      </c>
+      <c r="N24">
+        <v>6.51</v>
+      </c>
+      <c r="O24">
+        <v>6.58</v>
+      </c>
+      <c r="P24">
+        <v>6.32</v>
+      </c>
+      <c r="Q24">
+        <v>7</v>
+      </c>
+      <c r="R24">
+        <v>7.63</v>
+      </c>
+      <c r="S24">
+        <v>6.85</v>
+      </c>
+      <c r="T24">
+        <v>4.88</v>
+      </c>
+      <c r="U24">
+        <v>5.01</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="17">
-        <v>7.3642703215174139</v>
-      </c>
-      <c r="D5" s="17">
-        <v>6.890222650438802</v>
-      </c>
-      <c r="E5" s="17">
-        <v>5.8546564107345809</v>
-      </c>
-      <c r="F5" s="17">
-        <v>5.9228826876659362</v>
-      </c>
-      <c r="G5" s="17">
-        <v>6.3561283118503926</v>
-      </c>
-      <c r="H5" s="17">
-        <v>6.6297022306652043</v>
-      </c>
-      <c r="I5" s="17">
-        <v>6.0495952182174664</v>
-      </c>
-      <c r="J5" s="17">
-        <v>5.6945634207103133</v>
-      </c>
-      <c r="K5" s="17">
-        <v>6.0526634620671658</v>
-      </c>
-      <c r="L5" s="17">
-        <v>5.8483016825497272</v>
-      </c>
-      <c r="M5" s="17">
-        <v>6.3420524053106755</v>
-      </c>
-      <c r="N5" s="17">
-        <v>6.8947248092178892</v>
-      </c>
-      <c r="O5" s="17">
-        <v>5.4896178855146376</v>
-      </c>
-      <c r="P5" s="17">
-        <v>5.3714509591868538</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>7.2455358521542337</v>
-      </c>
-      <c r="R5" s="17">
-        <v>8.9183874967704089</v>
-      </c>
-      <c r="S5" s="17">
-        <v>5.686496599299165</v>
+    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>35</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>5.68</v>
+      </c>
+      <c r="D25">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E25">
+        <v>5.29</v>
+      </c>
+      <c r="F25">
+        <v>4.79</v>
+      </c>
+      <c r="G25">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="H25">
+        <v>4.53</v>
+      </c>
+      <c r="I25">
+        <v>4.58</v>
+      </c>
+      <c r="J25">
+        <v>5.07</v>
+      </c>
+      <c r="K25">
+        <v>4.25</v>
+      </c>
+      <c r="L25">
+        <v>4.46</v>
+      </c>
+      <c r="M25">
+        <v>5.16</v>
+      </c>
+      <c r="N25">
+        <v>5.23</v>
+      </c>
+      <c r="O25">
+        <v>5.28</v>
+      </c>
+      <c r="P25">
+        <v>6.23</v>
+      </c>
+      <c r="Q25">
+        <v>7.71</v>
+      </c>
+      <c r="R25">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="S25">
+        <v>6.68</v>
+      </c>
+      <c r="T25">
+        <v>5.19</v>
+      </c>
+      <c r="U25">
+        <v>6.03</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="17">
-        <v>6.4307023560139527</v>
-      </c>
-      <c r="D6" s="17">
-        <v>7.278687339198604</v>
-      </c>
-      <c r="E6" s="17">
-        <v>7.0251759860517717</v>
-      </c>
-      <c r="F6" s="17">
-        <v>6.3328969953492669</v>
-      </c>
-      <c r="G6" s="17">
-        <v>6.8472762223169603</v>
-      </c>
-      <c r="H6" s="17">
-        <v>6.5698765858250656</v>
-      </c>
-      <c r="I6" s="17">
-        <v>6.3164393344929461</v>
-      </c>
-      <c r="J6" s="17">
-        <v>5.73589569358671</v>
-      </c>
-      <c r="K6" s="17">
-        <v>5.7774900874570676</v>
-      </c>
-      <c r="L6" s="17">
-        <v>5.7865930479349714</v>
-      </c>
-      <c r="M6" s="17">
-        <v>6.3648304664696065</v>
-      </c>
-      <c r="N6" s="17">
-        <v>6.2903731676530237</v>
-      </c>
-      <c r="O6" s="17">
-        <v>5.6199007184726035</v>
-      </c>
-      <c r="P6" s="17">
-        <v>5.9009421493453926</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>7.4995328604759237</v>
-      </c>
-      <c r="R6" s="17">
-        <v>8.2012621269621402</v>
-      </c>
-      <c r="S6" s="17">
-        <v>7.1311250814465197</v>
+    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>28</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>6.07</v>
+      </c>
+      <c r="D26">
+        <v>5.72</v>
+      </c>
+      <c r="E26">
+        <v>5.32</v>
+      </c>
+      <c r="F26">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G26">
+        <v>5.33</v>
+      </c>
+      <c r="H26">
+        <v>5.14</v>
+      </c>
+      <c r="I26">
+        <v>5.33</v>
+      </c>
+      <c r="J26">
+        <v>4.2</v>
+      </c>
+      <c r="K26">
+        <v>4.91</v>
+      </c>
+      <c r="L26">
+        <v>5.03</v>
+      </c>
+      <c r="M26">
+        <v>6.29</v>
+      </c>
+      <c r="N26">
+        <v>5.75</v>
+      </c>
+      <c r="O26">
+        <v>4.99</v>
+      </c>
+      <c r="P26">
+        <v>5.67</v>
+      </c>
+      <c r="Q26">
+        <v>7.12</v>
+      </c>
+      <c r="R26">
+        <v>7.59</v>
+      </c>
+      <c r="S26">
+        <v>4.8</v>
+      </c>
+      <c r="T26">
+        <v>3.39</v>
+      </c>
+      <c r="U26">
+        <v>3.73</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="17">
-        <v>7.5961223685643269</v>
-      </c>
-      <c r="D7" s="17">
-        <v>6.7532295121544337</v>
-      </c>
-      <c r="E7" s="17">
-        <v>7.3127294585445561</v>
-      </c>
-      <c r="F7" s="17">
-        <v>6.093793543197334</v>
-      </c>
-      <c r="G7" s="17">
-        <v>6.29382564211335</v>
-      </c>
-      <c r="H7" s="17">
-        <v>5.8479733577331086</v>
-      </c>
-      <c r="I7" s="17">
-        <v>5.7656228193819459</v>
-      </c>
-      <c r="J7" s="17">
-        <v>6.6436056527120222</v>
-      </c>
-      <c r="K7" s="17">
-        <v>5.6336959738412267</v>
-      </c>
-      <c r="L7" s="17">
-        <v>6.094831322416848</v>
-      </c>
-      <c r="M7" s="17">
-        <v>6.8908294205913183</v>
-      </c>
-      <c r="N7" s="17">
-        <v>7.3789547264277457</v>
-      </c>
-      <c r="O7" s="17">
-        <v>6.0267882764890253</v>
-      </c>
-      <c r="P7" s="17">
-        <v>6.4379611438016404</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>7.9420025881895215</v>
-      </c>
-      <c r="R7" s="17">
-        <v>7.7081545570312144</v>
-      </c>
-      <c r="S7" s="17">
-        <v>6.2024326677472033</v>
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>17</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>7.56</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>6.8</v>
+      </c>
+      <c r="F27">
+        <v>6.06</v>
+      </c>
+      <c r="G27">
+        <v>6.5</v>
+      </c>
+      <c r="H27">
+        <v>6.6</v>
+      </c>
+      <c r="I27">
+        <v>6.62</v>
+      </c>
+      <c r="J27">
+        <v>6.21</v>
+      </c>
+      <c r="K27">
+        <v>5.64</v>
+      </c>
+      <c r="L27">
+        <v>6.11</v>
+      </c>
+      <c r="M27">
+        <v>6.67</v>
+      </c>
+      <c r="N27">
+        <v>6.72</v>
+      </c>
+      <c r="O27">
+        <v>5.12</v>
+      </c>
+      <c r="P27">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Q27">
+        <v>6.55</v>
+      </c>
+      <c r="R27">
+        <v>7.55</v>
+      </c>
+      <c r="S27">
+        <v>4.93</v>
+      </c>
+      <c r="T27">
+        <v>3.16</v>
+      </c>
+      <c r="U27">
+        <v>3.52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="17">
-        <v>7.563755623876208</v>
-      </c>
-      <c r="D8" s="17">
-        <v>7.001988401939502</v>
-      </c>
-      <c r="E8" s="17">
-        <v>6.7998768561880842</v>
-      </c>
-      <c r="F8" s="17">
-        <v>6.0643338122563186</v>
-      </c>
-      <c r="G8" s="17">
-        <v>6.5002367687208134</v>
-      </c>
-      <c r="H8" s="17">
-        <v>6.5962183957743852</v>
-      </c>
-      <c r="I8" s="17">
-        <v>6.617441449224545</v>
-      </c>
-      <c r="J8" s="17">
-        <v>6.2110789395478427</v>
-      </c>
-      <c r="K8" s="17">
-        <v>5.6408959848776075</v>
-      </c>
-      <c r="L8" s="17">
-        <v>6.1124345689075668</v>
-      </c>
-      <c r="M8" s="17">
-        <v>6.6672605493774402</v>
-      </c>
-      <c r="N8" s="17">
-        <v>6.7235341483204234</v>
-      </c>
-      <c r="O8" s="17">
-        <v>5.1227425174188426</v>
-      </c>
-      <c r="P8" s="17">
-        <v>4.1497619599544677</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>6.5519898118262114</v>
-      </c>
-      <c r="R8" s="17">
-        <v>7.5462379271146505</v>
-      </c>
-      <c r="S8" s="17">
-        <v>4.9316119627498152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>21</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="18">
-        <v>7.1163924330203612</v>
-      </c>
-      <c r="D9" s="18">
-        <v>6.8648507092434752</v>
-      </c>
-      <c r="E9" s="18">
-        <v>6.2571754847713956</v>
-      </c>
-      <c r="F9" s="18">
-        <v>6.0674917567735847</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6.3436178499250335</v>
-      </c>
-      <c r="H9" s="18">
-        <v>6.1374110686338135</v>
-      </c>
-      <c r="I9" s="18">
-        <v>6.1012789026578016</v>
-      </c>
-      <c r="J9" s="18">
-        <v>5.0584802478020912</v>
-      </c>
-      <c r="K9" s="18">
-        <v>4.7482540052999775</v>
-      </c>
-      <c r="L9" s="18">
-        <v>4.9845312794181389</v>
-      </c>
-      <c r="M9" s="18">
-        <v>6.3749375114918552</v>
-      </c>
-      <c r="N9" s="18">
-        <v>6.2044347458849316</v>
-      </c>
-      <c r="O9" s="18">
-        <v>5.7436338366694102</v>
-      </c>
-      <c r="P9" s="18">
-        <v>5.4441759751405607</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>7.0252546148432673</v>
-      </c>
-      <c r="R9" s="18">
-        <v>6.8094287746683264</v>
-      </c>
-      <c r="S9" s="18">
-        <v>6.7236614640824079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="18">
-        <v>8.0184574970546993</v>
-      </c>
-      <c r="D10" s="18">
-        <v>7.3634879319430731</v>
-      </c>
-      <c r="E10" s="18">
-        <v>7.1706270567280983</v>
-      </c>
-      <c r="F10" s="18">
-        <v>6.0251414024990551</v>
-      </c>
-      <c r="G10" s="18">
-        <v>7.2832658399391379</v>
-      </c>
-      <c r="H10" s="18">
-        <v>7.1704155465187318</v>
-      </c>
-      <c r="I10" s="18">
-        <v>6.8653750610403561</v>
-      </c>
-      <c r="J10" s="18">
-        <v>5.8066107871132369</v>
-      </c>
-      <c r="K10" s="18">
-        <v>5.7971336935999602</v>
-      </c>
-      <c r="L10" s="18">
-        <v>6.4508670528888148</v>
-      </c>
-      <c r="M10" s="18">
-        <v>7.1441246973374621</v>
-      </c>
-      <c r="N10" s="18">
-        <v>6.8411522702208325</v>
-      </c>
-      <c r="O10" s="18">
-        <v>5.4754549739115719</v>
-      </c>
-      <c r="P10" s="18">
-        <v>5.7893519557110675</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>6.342831913909488</v>
-      </c>
-      <c r="R10" s="18">
-        <v>6.9621580971792758</v>
-      </c>
-      <c r="S10" s="18">
-        <v>5.452824068927618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>23</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="18">
-        <v>6.1560839817134418</v>
-      </c>
-      <c r="D11" s="18">
-        <v>5.731233754966877</v>
-      </c>
-      <c r="E11" s="18">
-        <v>5.7551743088184022</v>
-      </c>
-      <c r="F11" s="18">
-        <v>5.1358077712159975</v>
-      </c>
-      <c r="G11" s="18">
-        <v>5.8141900727766958</v>
-      </c>
-      <c r="H11" s="18">
-        <v>5.7018865158553549</v>
-      </c>
-      <c r="I11" s="18">
-        <v>5.600763775884932</v>
-      </c>
-      <c r="J11" s="18">
-        <v>4.8396696229098835</v>
-      </c>
-      <c r="K11" s="18">
-        <v>4.8607565007497904</v>
-      </c>
-      <c r="L11" s="18">
-        <v>5.052581932466059</v>
-      </c>
-      <c r="M11" s="18">
-        <v>5.8818933245516662</v>
-      </c>
-      <c r="N11" s="18">
-        <v>5.978093485887257</v>
-      </c>
-      <c r="O11" s="18">
-        <v>5.301068202984955</v>
-      </c>
-      <c r="P11" s="18">
-        <v>5.5916864905130446</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>7.3941163177210489</v>
-      </c>
-      <c r="R11" s="18">
-        <v>7.6890783362025772</v>
-      </c>
-      <c r="S11" s="18">
-        <v>6.5983567046472897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>24</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="18">
-        <v>5.8216902192049149</v>
-      </c>
-      <c r="D12" s="18">
-        <v>5.7242520295233001</v>
-      </c>
-      <c r="E12" s="18">
-        <v>5.5195330637960422</v>
-      </c>
-      <c r="F12" s="18">
-        <v>4.3906450198794538</v>
-      </c>
-      <c r="G12" s="18">
-        <v>5.233544361441953</v>
-      </c>
-      <c r="H12" s="18">
-        <v>5.6880348364485576</v>
-      </c>
-      <c r="I12" s="18">
-        <v>5.239048049820763</v>
-      </c>
-      <c r="J12" s="18">
-        <v>4.9687824002177159</v>
-      </c>
-      <c r="K12" s="18">
-        <v>4.840034029647672</v>
-      </c>
-      <c r="L12" s="18">
-        <v>5.4230875838510295</v>
-      </c>
-      <c r="M12" s="18">
-        <v>5.732412939026954</v>
-      </c>
-      <c r="N12" s="18">
-        <v>5.8257142100854971</v>
-      </c>
-      <c r="O12" s="18">
-        <v>5.2616597886410483</v>
-      </c>
-      <c r="P12" s="18">
-        <v>5.9782785707832522</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>7.0873630934980261</v>
-      </c>
-      <c r="R12" s="18">
-        <v>7.6597099723952065</v>
-      </c>
-      <c r="S12" s="18">
-        <v>6.6046531027250346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>25</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="18">
-        <v>6.3545331094075115</v>
-      </c>
-      <c r="D13" s="18">
-        <v>6.1139909251470774</v>
-      </c>
-      <c r="E13" s="18">
-        <v>5.9506995943277996</v>
-      </c>
-      <c r="F13" s="18">
-        <v>4.8038197805334821</v>
-      </c>
-      <c r="G13" s="18">
-        <v>5.7785294329587096</v>
-      </c>
-      <c r="H13" s="18">
-        <v>5.9624030719281267</v>
-      </c>
-      <c r="I13" s="18">
-        <v>5.8485902529591973</v>
-      </c>
-      <c r="J13" s="18">
-        <v>4.9295625548849173</v>
-      </c>
-      <c r="K13" s="18">
-        <v>5.0717235916171388</v>
-      </c>
-      <c r="L13" s="18">
-        <v>5.4169739111238835</v>
-      </c>
-      <c r="M13" s="18">
-        <v>6.2652170146940769</v>
-      </c>
-      <c r="N13" s="18">
-        <v>6.2853903676588327</v>
-      </c>
-      <c r="O13" s="18">
-        <v>5.9116536031306106</v>
-      </c>
-      <c r="P13" s="18">
-        <v>6.2281885833772366</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>7.6259753262186782</v>
-      </c>
-      <c r="R13" s="18">
-        <v>7.7733734186244936</v>
-      </c>
-      <c r="S13" s="18">
-        <v>6.6868953538062366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>26</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="18">
-        <v>6.3044048369344239</v>
-      </c>
-      <c r="D14" s="18">
-        <v>6.1763200310802153</v>
-      </c>
-      <c r="E14" s="18">
-        <v>5.868329672202071</v>
-      </c>
-      <c r="F14" s="18">
-        <v>6.0577345975898282</v>
-      </c>
-      <c r="G14" s="18">
-        <v>6.1049533981036328</v>
-      </c>
-      <c r="H14" s="18">
-        <v>6.076316316102635</v>
-      </c>
-      <c r="I14" s="18">
-        <v>5.9154840901105423</v>
-      </c>
-      <c r="J14" s="18">
-        <v>6.2259381215290297</v>
-      </c>
-      <c r="K14" s="18">
-        <v>4.8738366855916357</v>
-      </c>
-      <c r="L14" s="18">
-        <v>5.3397736358950194</v>
-      </c>
-      <c r="M14" s="18">
-        <v>5.8103266762935242</v>
-      </c>
-      <c r="N14" s="18">
-        <v>6.2584635729576306</v>
-      </c>
-      <c r="O14" s="18">
-        <v>5.284745274961943</v>
-      </c>
-      <c r="P14" s="18">
-        <v>6.1032495040652162</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>7.4087322736601067</v>
-      </c>
-      <c r="R14" s="18">
-        <v>7.5815729123429172</v>
-      </c>
-      <c r="S14" s="18">
-        <v>6.7896430688999558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>27</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="18">
-        <v>6.4598113958517391</v>
-      </c>
-      <c r="D15" s="18">
-        <v>5.9960652309560203</v>
-      </c>
-      <c r="E15" s="18">
-        <v>6.1490279475927112</v>
-      </c>
-      <c r="F15" s="18">
-        <v>5.5762808390527958</v>
-      </c>
-      <c r="G15" s="18">
-        <v>6.7191665573579584</v>
-      </c>
-      <c r="H15" s="18">
-        <v>6.3669558329143223</v>
-      </c>
-      <c r="I15" s="18">
-        <v>5.7418485772228065</v>
-      </c>
-      <c r="J15" s="18">
-        <v>5.8116600317252916</v>
-      </c>
-      <c r="K15" s="18">
-        <v>5.3816940422756341</v>
-      </c>
-      <c r="L15" s="18">
-        <v>5.2032862325778435</v>
-      </c>
-      <c r="M15" s="18">
-        <v>6.5491652271162089</v>
-      </c>
-      <c r="N15" s="18">
-        <v>6.5482015898032699</v>
-      </c>
-      <c r="O15" s="18">
-        <v>5.6849721217028035</v>
-      </c>
-      <c r="P15" s="18">
-        <v>5.4975804165544426</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>6.93578692501017</v>
-      </c>
-      <c r="R15" s="18">
-        <v>7.862425310021373</v>
-      </c>
-      <c r="S15" s="18">
-        <v>6.5553176639399462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>28</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="18">
-        <v>6.0743808656601415</v>
-      </c>
-      <c r="D16" s="18">
-        <v>5.7232247992449707</v>
-      </c>
-      <c r="E16" s="18">
-        <v>5.3248889411056997</v>
-      </c>
-      <c r="F16" s="18">
-        <v>4.6132113662356637</v>
-      </c>
-      <c r="G16" s="18">
-        <v>5.3268548707023973</v>
-      </c>
-      <c r="H16" s="18">
-        <v>5.1444909256946589</v>
-      </c>
-      <c r="I16" s="18">
-        <v>5.3292639217507976</v>
-      </c>
-      <c r="J16" s="18">
-        <v>4.2041242947036412</v>
-      </c>
-      <c r="K16" s="18">
-        <v>4.9132633271562076</v>
-      </c>
-      <c r="L16" s="18">
-        <v>5.0300967447755305</v>
-      </c>
-      <c r="M16" s="18">
-        <v>6.285034435306029</v>
-      </c>
-      <c r="N16" s="18">
-        <v>5.7498045537345623</v>
-      </c>
-      <c r="O16" s="18">
-        <v>4.9874720255286107</v>
-      </c>
-      <c r="P16" s="18">
-        <v>5.6702992698170469</v>
-      </c>
-      <c r="Q16" s="18">
-        <v>7.1221484728297035</v>
-      </c>
-      <c r="R16" s="18">
-        <v>7.590964491839479</v>
-      </c>
-      <c r="S16" s="18">
-        <v>4.7975151721205052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>29</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="18">
-        <v>6.2354242508063527</v>
-      </c>
-      <c r="D17" s="18">
-        <v>5.7336481575026079</v>
-      </c>
-      <c r="E17" s="18">
-        <v>5.7076913454106437</v>
-      </c>
-      <c r="F17" s="18">
-        <v>5.2101265827968932</v>
-      </c>
-      <c r="G17" s="18">
-        <v>5.9130800415992297</v>
-      </c>
-      <c r="H17" s="18">
-        <v>5.9043309995619113</v>
-      </c>
-      <c r="I17" s="18">
-        <v>5.9528235748858798</v>
-      </c>
-      <c r="J17" s="18">
-        <v>5.4691243098527194</v>
-      </c>
-      <c r="K17" s="18">
-        <v>4.8860615086007044</v>
-      </c>
-      <c r="L17" s="18">
-        <v>5.3135227963393739</v>
-      </c>
-      <c r="M17" s="18">
-        <v>6.3411441984648604</v>
-      </c>
-      <c r="N17" s="18">
-        <v>6.3752680903826544</v>
-      </c>
-      <c r="O17" s="18">
-        <v>5.6819597709954941</v>
-      </c>
-      <c r="P17" s="18">
-        <v>5.9669338999118864</v>
-      </c>
-      <c r="Q17" s="18">
-        <v>7.6503173611015436</v>
-      </c>
-      <c r="R17" s="18">
-        <v>7.5151951093386371</v>
-      </c>
-      <c r="S17" s="18">
-        <v>6.8530023356829917</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>31</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="19">
-        <v>6.107889543579593</v>
-      </c>
-      <c r="D18" s="19">
-        <v>5.7640352335301479</v>
-      </c>
-      <c r="E18" s="19">
-        <v>5.6783253322159428</v>
-      </c>
-      <c r="F18" s="19">
-        <v>5.2425748992533592</v>
-      </c>
-      <c r="G18" s="19">
-        <v>5.6346846363559751</v>
-      </c>
-      <c r="H18" s="19">
-        <v>5.5352599764791721</v>
-      </c>
-      <c r="I18" s="19">
-        <v>5.8596008496305547</v>
-      </c>
-      <c r="J18" s="19">
-        <v>5.379742131617661</v>
-      </c>
-      <c r="K18" s="19">
-        <v>4.7277539094102972</v>
-      </c>
-      <c r="L18" s="19">
-        <v>5.2270026260059081</v>
-      </c>
-      <c r="M18" s="19">
-        <v>5.9345372819743503</v>
-      </c>
-      <c r="N18" s="19">
-        <v>5.9423884978586123</v>
-      </c>
-      <c r="O18" s="19">
-        <v>6.0220315322944318</v>
-      </c>
-      <c r="P18" s="19">
-        <v>5.2853669048034417</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>6.8880767924638393</v>
-      </c>
-      <c r="R18" s="19">
-        <v>7.2628141604921916</v>
-      </c>
-      <c r="S18" s="19">
-        <v>7.1219709038885277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>32</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="19">
-        <v>5.4644537488578946</v>
-      </c>
-      <c r="D19" s="19">
-        <v>4.9061083555085743</v>
-      </c>
-      <c r="E19" s="19">
-        <v>4.3754470094634881</v>
-      </c>
-      <c r="F19" s="19">
-        <v>3.9691663894699776</v>
-      </c>
-      <c r="G19" s="19">
-        <v>3.9071347816954063</v>
-      </c>
-      <c r="H19" s="19">
-        <v>4.4179617717174153</v>
-      </c>
-      <c r="I19" s="19">
-        <v>4.7631861313410955</v>
-      </c>
-      <c r="J19" s="19">
-        <v>4.6714938946758213</v>
-      </c>
-      <c r="K19" s="19">
-        <v>4.0789935560744359</v>
-      </c>
-      <c r="L19" s="19">
-        <v>4.9119107364932528</v>
-      </c>
-      <c r="M19" s="19">
-        <v>5.8612786585388212</v>
-      </c>
-      <c r="N19" s="19">
-        <v>6.0786479204363761</v>
-      </c>
-      <c r="O19" s="19">
-        <v>5.5462115283459381</v>
-      </c>
-      <c r="P19" s="19">
-        <v>6.2952434521261873</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>7.7852899829684956</v>
-      </c>
-      <c r="R19" s="19">
-        <v>8.3373432030103363</v>
-      </c>
-      <c r="S19" s="19">
-        <v>7.2852708541458568</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>33</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="19">
-        <v>5.9369222452004271</v>
-      </c>
-      <c r="D20" s="19">
-        <v>5.4645662965584121</v>
-      </c>
-      <c r="E20" s="19">
-        <v>5.6610624104025504</v>
-      </c>
-      <c r="F20" s="19">
-        <v>5.6557179503092607</v>
-      </c>
-      <c r="G20" s="19">
-        <v>5.2614509828568572</v>
-      </c>
-      <c r="H20" s="19">
-        <v>5.0962734131433187</v>
-      </c>
-      <c r="I20" s="19">
-        <v>5.4381981908372108</v>
-      </c>
-      <c r="J20" s="19">
-        <v>5.3734793911128778</v>
-      </c>
-      <c r="K20" s="19">
-        <v>4.4331166240560815</v>
-      </c>
-      <c r="L20" s="19">
-        <v>4.5213270206884921</v>
-      </c>
-      <c r="M20" s="19">
-        <v>5.7968735045862774</v>
-      </c>
-      <c r="N20" s="19">
-        <v>5.9052511170638997</v>
-      </c>
-      <c r="O20" s="19">
-        <v>5.9541448951028721</v>
-      </c>
-      <c r="P20" s="19">
-        <v>6.0699143856638322</v>
-      </c>
-      <c r="Q20" s="19">
-        <v>6.6912284168741571</v>
-      </c>
-      <c r="R20" s="19">
-        <v>8.0111643750979251</v>
-      </c>
-      <c r="S20" s="19">
-        <v>7.6299801140031365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>35</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="19">
-        <v>5.6776290440961219</v>
-      </c>
-      <c r="D21" s="19">
-        <v>5.0206884566340246</v>
-      </c>
-      <c r="E21" s="19">
-        <v>5.2854572822752734</v>
-      </c>
-      <c r="F21" s="19">
-        <v>4.7870147694679845</v>
-      </c>
-      <c r="G21" s="19">
-        <v>4.847943694244444</v>
-      </c>
-      <c r="H21" s="19">
-        <v>4.5266053961172226</v>
-      </c>
-      <c r="I21" s="19">
-        <v>4.5777361861681412</v>
-      </c>
-      <c r="J21" s="19">
-        <v>5.0740430393364822</v>
-      </c>
-      <c r="K21" s="19">
-        <v>4.2539124610993921</v>
-      </c>
-      <c r="L21" s="19">
-        <v>4.4558305948966836</v>
-      </c>
-      <c r="M21" s="19">
-        <v>5.158580811984832</v>
-      </c>
-      <c r="N21" s="19">
-        <v>5.2318448087286198</v>
-      </c>
-      <c r="O21" s="19">
-        <v>5.277964613388507</v>
-      </c>
-      <c r="P21" s="19">
-        <v>6.2322415286683031</v>
-      </c>
-      <c r="Q21" s="19">
-        <v>7.7123904074066347</v>
-      </c>
-      <c r="R21" s="19">
-        <v>8.452318912130016</v>
-      </c>
-      <c r="S21" s="19">
-        <v>6.6797435955544593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>41</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="20">
-        <v>7.1551774842414595</v>
-      </c>
-      <c r="D22" s="20">
-        <v>6.9706021255615704</v>
-      </c>
-      <c r="E22" s="20">
-        <v>6.6595636768457531</v>
-      </c>
-      <c r="F22" s="20">
-        <v>6.1688440951574695</v>
-      </c>
-      <c r="G22" s="20">
-        <v>6.7623495030379637</v>
-      </c>
-      <c r="H22" s="20">
-        <v>6.6096814312415848</v>
-      </c>
-      <c r="I22" s="20">
-        <v>6.3425182176599781</v>
-      </c>
-      <c r="J22" s="20">
-        <v>6.5365827900373397</v>
-      </c>
-      <c r="K22" s="20">
-        <v>5.539345274898726</v>
-      </c>
-      <c r="L22" s="20">
-        <v>5.5129434849963674</v>
-      </c>
-      <c r="M22" s="20">
-        <v>6.3372989133957232</v>
-      </c>
-      <c r="N22" s="20">
-        <v>6.3468690723461592</v>
-      </c>
-      <c r="O22" s="20">
-        <v>5.8973279354961257</v>
-      </c>
-      <c r="P22" s="20">
-        <v>5.4553319204401483</v>
-      </c>
-      <c r="Q22" s="20">
-        <v>6.7538606103560186</v>
-      </c>
-      <c r="R22" s="20">
-        <v>7.3302538051589421</v>
-      </c>
-      <c r="S22" s="20">
-        <v>6.7094687216347362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>42</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="20">
-        <v>6.5329143121542934</v>
-      </c>
-      <c r="D23" s="20">
-        <v>5.9005507012111309</v>
-      </c>
-      <c r="E23" s="20">
-        <v>5.8730926196955426</v>
-      </c>
-      <c r="F23" s="20">
-        <v>6.3875165283482911</v>
-      </c>
-      <c r="G23" s="20">
-        <v>6.7490315115950779</v>
-      </c>
-      <c r="H23" s="20">
-        <v>6.6157212594905674</v>
-      </c>
-      <c r="I23" s="20">
-        <v>6.4212266132938138</v>
-      </c>
-      <c r="J23" s="20">
-        <v>6.0472382482314462</v>
-      </c>
-      <c r="K23" s="20">
-        <v>5.5970546112041673</v>
-      </c>
-      <c r="L23" s="20">
-        <v>5.6759717790508857</v>
-      </c>
-      <c r="M23" s="20">
-        <v>6.3823373027297583</v>
-      </c>
-      <c r="N23" s="20">
-        <v>6.5116158759593548</v>
-      </c>
-      <c r="O23" s="20">
-        <v>6.5806081639783462</v>
-      </c>
-      <c r="P23" s="20">
-        <v>6.3241858742997223</v>
-      </c>
-      <c r="Q23" s="20">
-        <v>6.9968801207011957</v>
-      </c>
-      <c r="R23" s="20">
-        <v>7.6270053296432154</v>
-      </c>
-      <c r="S23" s="20">
-        <v>6.8477274345593591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>43</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="20">
-        <v>5.9293529200918211</v>
-      </c>
-      <c r="D24" s="20">
-        <v>5.7256784499415083</v>
-      </c>
-      <c r="E24" s="20">
-        <v>5.5657037447992597</v>
-      </c>
-      <c r="F24" s="20">
-        <v>4.9987509000669252</v>
-      </c>
-      <c r="G24" s="20">
-        <v>5.6872756782918819</v>
-      </c>
-      <c r="H24" s="20">
-        <v>5.7509939644026558</v>
-      </c>
-      <c r="I24" s="20">
-        <v>5.4881250844841309</v>
-      </c>
-      <c r="J24" s="20">
-        <v>5.4426057414261351</v>
-      </c>
-      <c r="K24" s="20">
-        <v>4.7220587783653967</v>
-      </c>
-      <c r="L24" s="20">
-        <v>5.0206963885798892</v>
-      </c>
-      <c r="M24" s="20">
-        <v>5.7147671575242454</v>
-      </c>
-      <c r="N24" s="20">
-        <v>5.8124606100638783</v>
-      </c>
-      <c r="O24" s="20">
-        <v>5.3206173118343365</v>
-      </c>
-      <c r="P24" s="20">
-        <v>5.7239510345280076</v>
-      </c>
-      <c r="Q24" s="20">
-        <v>6.6056281031563939</v>
-      </c>
-      <c r="R24" s="20">
-        <v>7.0971813417936715</v>
-      </c>
-      <c r="S24" s="20">
-        <v>7.069953892139111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>50</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="21">
-        <v>6.5172420072987007</v>
-      </c>
-      <c r="D25" s="21">
-        <v>5.5722553570856839</v>
-      </c>
-      <c r="E25" s="21">
-        <v>6.044828330154969</v>
-      </c>
-      <c r="F25" s="21">
-        <v>5.8310056188917478</v>
-      </c>
-      <c r="G25" s="21">
-        <v>6.6071506493351695</v>
-      </c>
-      <c r="H25" s="21">
-        <v>5.6443250612948335</v>
-      </c>
-      <c r="I25" s="21">
-        <v>5.8553819226313326</v>
-      </c>
-      <c r="J25" s="21">
-        <v>5.6740127354832568</v>
-      </c>
-      <c r="K25" s="21">
-        <v>5.8141114996051719</v>
-      </c>
-      <c r="L25" s="21">
-        <v>6.0263423500896875</v>
-      </c>
-      <c r="M25" s="21">
-        <v>6.6062221526713154</v>
-      </c>
-      <c r="N25" s="21">
-        <v>6.7192636560845438</v>
-      </c>
-      <c r="O25" s="21">
-        <v>5.5175951270771266</v>
-      </c>
-      <c r="P25" s="21">
-        <v>5.5505880207832892</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>6.4571543681251198</v>
-      </c>
-      <c r="R25" s="21">
-        <v>7.50127828705957</v>
-      </c>
-      <c r="S25" s="21">
-        <v>5.9640643455155251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>51</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="21">
-        <v>6.5231693860950246</v>
-      </c>
-      <c r="D26" s="21">
-        <v>6.455348119866164</v>
-      </c>
-      <c r="E26" s="21">
-        <v>6.1600679074229783</v>
-      </c>
-      <c r="F26" s="21">
-        <v>5.568919890995276</v>
-      </c>
-      <c r="G26" s="21">
-        <v>5.7303431352117062</v>
-      </c>
-      <c r="H26" s="21">
-        <v>6.712067568126618</v>
-      </c>
-      <c r="I26" s="21">
-        <v>6.2660711565106038</v>
-      </c>
-      <c r="J26" s="21">
-        <v>6.0950681331067749</v>
-      </c>
-      <c r="K26" s="21">
-        <v>5.7015552144894217</v>
-      </c>
-      <c r="L26" s="21">
-        <v>5.6864594487991029</v>
-      </c>
-      <c r="M26" s="21">
-        <v>6.7054028253076563</v>
-      </c>
-      <c r="N26" s="21">
-        <v>6.7604947353748246</v>
-      </c>
-      <c r="O26" s="21">
-        <v>5.2987516979604345</v>
-      </c>
-      <c r="P26" s="21">
-        <v>4.8118984812042846</v>
-      </c>
-      <c r="Q26" s="21">
-        <v>6.5398505612054159</v>
-      </c>
-      <c r="R26" s="21">
-        <v>7.5745068769412187</v>
-      </c>
-      <c r="S26" s="21">
-        <v>5.5150777399472934</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>52</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="21">
-        <v>6.0752024225339145</v>
-      </c>
-      <c r="D27" s="21">
-        <v>5.9280884865029559</v>
-      </c>
-      <c r="E27" s="21">
-        <v>6.074104021316252</v>
-      </c>
-      <c r="F27" s="21">
-        <v>5.1600159926280478</v>
-      </c>
-      <c r="G27" s="21">
-        <v>6.1334769442392938</v>
-      </c>
-      <c r="H27" s="21">
-        <v>6.0026738492580041</v>
-      </c>
-      <c r="I27" s="21">
-        <v>5.7857439561945174</v>
-      </c>
-      <c r="J27" s="21">
-        <v>5.5766830125909692</v>
-      </c>
-      <c r="K27" s="21">
-        <v>5.5226303101486867</v>
-      </c>
-      <c r="L27" s="21">
-        <v>5.6675800567340993</v>
-      </c>
-      <c r="M27" s="21">
-        <v>6.3162556437462287</v>
-      </c>
-      <c r="N27" s="21">
-        <v>6.3197751822172954</v>
-      </c>
-      <c r="O27" s="21">
-        <v>5.8083099603982458</v>
-      </c>
-      <c r="P27" s="21">
-        <v>5.5411357971743378</v>
-      </c>
-      <c r="Q27" s="21">
-        <v>7.4185799879525502</v>
-      </c>
-      <c r="R27" s="21">
-        <v>7.8398419657666549</v>
-      </c>
-      <c r="S27" s="21">
-        <v>6.1319387181982563</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P27">
-    <sortCondition ref="A2:A27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S44">
+    <sortCondition ref="B1:B44"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2483,6 +2715,201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF75950-626A-5A48-9D38-8CD2E68B1128}">
+  <dimension ref="A1:V26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:T26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8527CD3B-F6CC-4691-88A0-112D48E4BE48}">
   <dimension ref="A1:BA31"/>
   <sheetViews>
@@ -2499,63 +2926,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="30" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="33" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -8234,207 +8661,207 @@
       <c r="B31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="20">
         <f>AVERAGE(C3:C28)</f>
         <v>6.9201911041454327</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="20">
         <f t="shared" ref="D31:BA31" si="0">AVERAGE(D3:D28)</f>
         <v>5.9215281937807465</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="20">
         <f t="shared" si="0"/>
         <v>5.9100869293284859</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="20">
         <f t="shared" si="0"/>
         <v>4.1820014847414591</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="20">
         <f t="shared" si="0"/>
         <v>5.7297989125080857</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="20">
         <f t="shared" si="0"/>
         <v>5.5854950524628695</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="20">
         <f t="shared" si="0"/>
         <v>5.5289666470074517</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31" s="20">
         <f t="shared" si="0"/>
         <v>4.1716454368951883</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="20">
         <f t="shared" si="0"/>
         <v>3.797644216978604</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L31" s="20">
         <f t="shared" si="0"/>
         <v>4.3739002955145363</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31" s="20">
         <f t="shared" si="0"/>
         <v>6.9424135619530514</v>
       </c>
-      <c r="N31" s="26">
+      <c r="N31" s="20">
         <f t="shared" si="0"/>
         <v>6.9905415015039516</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O31" s="20">
         <f t="shared" si="0"/>
         <v>6.852136086914471</v>
       </c>
-      <c r="P31" s="26">
+      <c r="P31" s="20">
         <f t="shared" si="0"/>
         <v>7.0505707142422835</v>
       </c>
-      <c r="Q31" s="26">
+      <c r="Q31" s="20">
         <f t="shared" si="0"/>
         <v>8.4308462211015183</v>
       </c>
-      <c r="R31" s="26">
+      <c r="R31" s="20">
         <f t="shared" si="0"/>
         <v>8.6894886953220425</v>
       </c>
-      <c r="S31" s="26">
+      <c r="S31" s="20">
         <f t="shared" si="0"/>
         <v>8.1623854134872023</v>
       </c>
-      <c r="T31" s="26">
+      <c r="T31" s="20">
         <f t="shared" si="0"/>
         <v>6.2383165192371779</v>
       </c>
-      <c r="U31" s="26">
+      <c r="U31" s="20">
         <f t="shared" si="0"/>
         <v>6.1308981069399575</v>
       </c>
-      <c r="V31" s="26">
+      <c r="V31" s="20">
         <f t="shared" si="0"/>
         <v>6.0575858512709662</v>
       </c>
-      <c r="W31" s="26">
+      <c r="W31" s="20">
         <f t="shared" si="0"/>
         <v>6.2780403438403063</v>
       </c>
-      <c r="X31" s="26">
+      <c r="X31" s="20">
         <f t="shared" si="0"/>
         <v>6.0217813592850113</v>
       </c>
-      <c r="Y31" s="26">
+      <c r="Y31" s="20">
         <f t="shared" si="0"/>
         <v>6.0570849231626065</v>
       </c>
-      <c r="Z31" s="26">
+      <c r="Z31" s="20">
         <f t="shared" si="0"/>
         <v>6.258450279701715</v>
       </c>
-      <c r="AA31" s="26">
+      <c r="AA31" s="20">
         <f t="shared" si="0"/>
         <v>6.3423973500770652</v>
       </c>
-      <c r="AB31" s="26">
+      <c r="AB31" s="20">
         <f t="shared" si="0"/>
         <v>5.6857533248577994</v>
       </c>
-      <c r="AC31" s="26">
+      <c r="AC31" s="20">
         <f t="shared" si="0"/>
         <v>5.8678172198791634</v>
       </c>
-      <c r="AD31" s="26">
+      <c r="AD31" s="20">
         <f t="shared" si="0"/>
         <v>5.7350456877185003</v>
       </c>
-      <c r="AE31" s="26">
+      <c r="AE31" s="20">
         <f t="shared" si="0"/>
         <v>5.7817473792304384</v>
       </c>
-      <c r="AF31" s="26">
+      <c r="AF31" s="20">
         <f t="shared" si="0"/>
         <v>5.6033466060426589</v>
       </c>
-      <c r="AG31" s="26">
+      <c r="AG31" s="20">
         <f t="shared" si="0"/>
         <v>5.6728139621792772</v>
       </c>
-      <c r="AH31" s="26">
+      <c r="AH31" s="20">
         <f t="shared" si="0"/>
         <v>6.9310591951726943</v>
       </c>
-      <c r="AI31" s="26">
+      <c r="AI31" s="20">
         <f t="shared" si="0"/>
         <v>7.9058198315089649</v>
       </c>
-      <c r="AJ31" s="26">
+      <c r="AJ31" s="20">
         <f t="shared" si="0"/>
         <v>4.7777172213342434</v>
       </c>
-      <c r="AK31" s="26">
+      <c r="AK31" s="20">
         <f t="shared" si="0"/>
         <v>5.8533546191249366</v>
       </c>
-      <c r="AL31" s="26">
+      <c r="AL31" s="20">
         <f t="shared" si="0"/>
         <v>6.1256733549461835</v>
       </c>
-      <c r="AM31" s="26">
+      <c r="AM31" s="20">
         <f t="shared" si="0"/>
         <v>5.8438727248453466</v>
       </c>
-      <c r="AN31" s="26">
+      <c r="AN31" s="20">
         <f t="shared" si="0"/>
         <v>5.722370275392695</v>
       </c>
-      <c r="AO31" s="26">
+      <c r="AO31" s="20">
         <f t="shared" si="0"/>
         <v>5.9661087558628347</v>
       </c>
-      <c r="AP31" s="26">
+      <c r="AP31" s="20">
         <f t="shared" si="0"/>
         <v>5.8541366003536588</v>
       </c>
-      <c r="AQ31" s="26">
+      <c r="AQ31" s="20">
         <f t="shared" si="0"/>
         <v>5.564298421773306</v>
       </c>
-      <c r="AR31" s="26">
+      <c r="AR31" s="20">
         <f t="shared" si="0"/>
         <v>5.7459671069573952</v>
       </c>
-      <c r="AS31" s="26">
+      <c r="AS31" s="20">
         <f t="shared" si="0"/>
         <v>5.5694227875384694</v>
       </c>
-      <c r="AT31" s="26">
+      <c r="AT31" s="20">
         <f t="shared" si="0"/>
         <v>5.656283434838584</v>
       </c>
-      <c r="AU31" s="26">
+      <c r="AU31" s="20">
         <f t="shared" si="0"/>
         <v>5.7185570626823745</v>
       </c>
-      <c r="AV31" s="26">
+      <c r="AV31" s="20">
         <f t="shared" si="0"/>
         <v>5.8033195635910984</v>
       </c>
-      <c r="AW31" s="26">
+      <c r="AW31" s="20">
         <f t="shared" si="0"/>
         <v>4.0575140789123205</v>
       </c>
-      <c r="AX31" s="26">
+      <c r="AX31" s="20">
         <f t="shared" si="0"/>
         <v>4.1988770725567361</v>
       </c>
-      <c r="AY31" s="26">
+      <c r="AY31" s="20">
         <f t="shared" si="0"/>
         <v>5.9175302352062955</v>
       </c>
-      <c r="AZ31" s="26">
+      <c r="AZ31" s="20">
         <f t="shared" si="0"/>
         <v>6.3944416077452635</v>
       </c>
-      <c r="BA31" s="26">
+      <c r="BA31" s="20">
         <f t="shared" si="0"/>
         <v>6.1844388887033555</v>
       </c>
@@ -8452,7 +8879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:GG29"/>
   <sheetViews>
@@ -8469,215 +8896,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="41" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="35" t="s">
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="35" t="s">
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="36"/>
-      <c r="BK1" s="36"/>
-      <c r="BL1" s="36"/>
-      <c r="BM1" s="36"/>
-      <c r="BN1" s="36"/>
-      <c r="BO1" s="36"/>
-      <c r="BP1" s="36"/>
-      <c r="BQ1" s="36"/>
-      <c r="BR1" s="37"/>
-      <c r="BS1" s="35" t="s">
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
+      <c r="BJ1" s="30"/>
+      <c r="BK1" s="30"/>
+      <c r="BL1" s="30"/>
+      <c r="BM1" s="30"/>
+      <c r="BN1" s="30"/>
+      <c r="BO1" s="30"/>
+      <c r="BP1" s="30"/>
+      <c r="BQ1" s="30"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="BT1" s="36"/>
-      <c r="BU1" s="36"/>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BX1" s="36"/>
-      <c r="BY1" s="36"/>
-      <c r="BZ1" s="36"/>
-      <c r="CA1" s="36"/>
-      <c r="CB1" s="36"/>
-      <c r="CC1" s="36"/>
-      <c r="CD1" s="36"/>
-      <c r="CE1" s="36"/>
-      <c r="CF1" s="36"/>
-      <c r="CG1" s="22"/>
-      <c r="CH1" s="22"/>
-      <c r="CI1" s="22"/>
-      <c r="CJ1" s="35" t="s">
+      <c r="BT1" s="30"/>
+      <c r="BU1" s="30"/>
+      <c r="BV1" s="30"/>
+      <c r="BW1" s="30"/>
+      <c r="BX1" s="30"/>
+      <c r="BY1" s="30"/>
+      <c r="BZ1" s="30"/>
+      <c r="CA1" s="30"/>
+      <c r="CB1" s="30"/>
+      <c r="CC1" s="30"/>
+      <c r="CD1" s="30"/>
+      <c r="CE1" s="30"/>
+      <c r="CF1" s="30"/>
+      <c r="CG1" s="17"/>
+      <c r="CH1" s="17"/>
+      <c r="CI1" s="17"/>
+      <c r="CJ1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="CK1" s="36"/>
-      <c r="CL1" s="36"/>
-      <c r="CM1" s="36"/>
-      <c r="CN1" s="36"/>
-      <c r="CO1" s="36"/>
-      <c r="CP1" s="36"/>
-      <c r="CQ1" s="36"/>
-      <c r="CR1" s="36"/>
-      <c r="CS1" s="36"/>
-      <c r="CT1" s="36"/>
-      <c r="CU1" s="36"/>
-      <c r="CV1" s="36"/>
-      <c r="CW1" s="36"/>
-      <c r="CX1" s="36"/>
-      <c r="CY1" s="36"/>
-      <c r="CZ1" s="37"/>
-      <c r="DA1" s="35" t="s">
+      <c r="CK1" s="30"/>
+      <c r="CL1" s="30"/>
+      <c r="CM1" s="30"/>
+      <c r="CN1" s="30"/>
+      <c r="CO1" s="30"/>
+      <c r="CP1" s="30"/>
+      <c r="CQ1" s="30"/>
+      <c r="CR1" s="30"/>
+      <c r="CS1" s="30"/>
+      <c r="CT1" s="30"/>
+      <c r="CU1" s="30"/>
+      <c r="CV1" s="30"/>
+      <c r="CW1" s="30"/>
+      <c r="CX1" s="30"/>
+      <c r="CY1" s="30"/>
+      <c r="CZ1" s="34"/>
+      <c r="DA1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="DB1" s="36"/>
-      <c r="DC1" s="36"/>
-      <c r="DD1" s="36"/>
-      <c r="DE1" s="36"/>
-      <c r="DF1" s="36"/>
-      <c r="DG1" s="36"/>
-      <c r="DH1" s="36"/>
-      <c r="DI1" s="36"/>
-      <c r="DJ1" s="36"/>
-      <c r="DK1" s="36"/>
-      <c r="DL1" s="36"/>
-      <c r="DM1" s="36"/>
-      <c r="DN1" s="36"/>
-      <c r="DO1" s="36"/>
-      <c r="DP1" s="36"/>
-      <c r="DQ1" s="37"/>
-      <c r="DR1" s="36" t="s">
+      <c r="DB1" s="30"/>
+      <c r="DC1" s="30"/>
+      <c r="DD1" s="30"/>
+      <c r="DE1" s="30"/>
+      <c r="DF1" s="30"/>
+      <c r="DG1" s="30"/>
+      <c r="DH1" s="30"/>
+      <c r="DI1" s="30"/>
+      <c r="DJ1" s="30"/>
+      <c r="DK1" s="30"/>
+      <c r="DL1" s="30"/>
+      <c r="DM1" s="30"/>
+      <c r="DN1" s="30"/>
+      <c r="DO1" s="30"/>
+      <c r="DP1" s="30"/>
+      <c r="DQ1" s="34"/>
+      <c r="DR1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="DS1" s="36"/>
-      <c r="DT1" s="36"/>
-      <c r="DU1" s="36"/>
-      <c r="DV1" s="36"/>
-      <c r="DW1" s="36"/>
-      <c r="DX1" s="36"/>
-      <c r="DY1" s="36"/>
-      <c r="DZ1" s="36"/>
-      <c r="EA1" s="36"/>
-      <c r="EB1" s="36"/>
-      <c r="EC1" s="36"/>
-      <c r="ED1" s="36"/>
-      <c r="EE1" s="36"/>
-      <c r="EF1" s="22"/>
-      <c r="EG1" s="22"/>
-      <c r="EH1" s="22"/>
-      <c r="EI1" s="35" t="s">
+      <c r="DS1" s="30"/>
+      <c r="DT1" s="30"/>
+      <c r="DU1" s="30"/>
+      <c r="DV1" s="30"/>
+      <c r="DW1" s="30"/>
+      <c r="DX1" s="30"/>
+      <c r="DY1" s="30"/>
+      <c r="DZ1" s="30"/>
+      <c r="EA1" s="30"/>
+      <c r="EB1" s="30"/>
+      <c r="EC1" s="30"/>
+      <c r="ED1" s="30"/>
+      <c r="EE1" s="30"/>
+      <c r="EF1" s="17"/>
+      <c r="EG1" s="17"/>
+      <c r="EH1" s="17"/>
+      <c r="EI1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="EJ1" s="36"/>
-      <c r="EK1" s="36"/>
-      <c r="EL1" s="36"/>
-      <c r="EM1" s="36"/>
-      <c r="EN1" s="36"/>
-      <c r="EO1" s="36"/>
-      <c r="EP1" s="36"/>
-      <c r="EQ1" s="36"/>
-      <c r="ER1" s="36"/>
-      <c r="ES1" s="36"/>
-      <c r="ET1" s="36"/>
-      <c r="EU1" s="36"/>
-      <c r="EV1" s="36"/>
-      <c r="EW1" s="36"/>
-      <c r="EX1" s="36"/>
-      <c r="EY1" s="37"/>
-      <c r="EZ1" s="39" t="s">
+      <c r="EJ1" s="30"/>
+      <c r="EK1" s="30"/>
+      <c r="EL1" s="30"/>
+      <c r="EM1" s="30"/>
+      <c r="EN1" s="30"/>
+      <c r="EO1" s="30"/>
+      <c r="EP1" s="30"/>
+      <c r="EQ1" s="30"/>
+      <c r="ER1" s="30"/>
+      <c r="ES1" s="30"/>
+      <c r="ET1" s="30"/>
+      <c r="EU1" s="30"/>
+      <c r="EV1" s="30"/>
+      <c r="EW1" s="30"/>
+      <c r="EX1" s="30"/>
+      <c r="EY1" s="34"/>
+      <c r="EZ1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="FA1" s="40"/>
-      <c r="FB1" s="40"/>
-      <c r="FC1" s="40"/>
-      <c r="FD1" s="40"/>
-      <c r="FE1" s="40"/>
-      <c r="FF1" s="40"/>
-      <c r="FG1" s="40"/>
-      <c r="FH1" s="40"/>
-      <c r="FI1" s="40"/>
-      <c r="FJ1" s="40"/>
-      <c r="FK1" s="40"/>
-      <c r="FL1" s="40"/>
-      <c r="FM1" s="40"/>
-      <c r="FN1" s="40"/>
-      <c r="FO1" s="40"/>
-      <c r="FP1" s="40"/>
-      <c r="FQ1" s="38" t="s">
+      <c r="FA1" s="37"/>
+      <c r="FB1" s="37"/>
+      <c r="FC1" s="37"/>
+      <c r="FD1" s="37"/>
+      <c r="FE1" s="37"/>
+      <c r="FF1" s="37"/>
+      <c r="FG1" s="37"/>
+      <c r="FH1" s="37"/>
+      <c r="FI1" s="37"/>
+      <c r="FJ1" s="37"/>
+      <c r="FK1" s="37"/>
+      <c r="FL1" s="37"/>
+      <c r="FM1" s="37"/>
+      <c r="FN1" s="37"/>
+      <c r="FO1" s="37"/>
+      <c r="FP1" s="37"/>
+      <c r="FQ1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="FR1" s="38"/>
-      <c r="FS1" s="38"/>
-      <c r="FT1" s="38"/>
-      <c r="FU1" s="38"/>
-      <c r="FV1" s="38"/>
-      <c r="FW1" s="38"/>
-      <c r="FX1" s="38"/>
-      <c r="FY1" s="38"/>
-      <c r="FZ1" s="38"/>
-      <c r="GA1" s="38"/>
-      <c r="GB1" s="38"/>
-      <c r="GC1" s="38"/>
-      <c r="GD1" s="38"/>
-      <c r="GE1" s="38"/>
-      <c r="GF1" s="38"/>
-      <c r="GG1" s="38"/>
+      <c r="FR1" s="35"/>
+      <c r="FS1" s="35"/>
+      <c r="FT1" s="35"/>
+      <c r="FU1" s="35"/>
+      <c r="FV1" s="35"/>
+      <c r="FW1" s="35"/>
+      <c r="FX1" s="35"/>
+      <c r="FY1" s="35"/>
+      <c r="FZ1" s="35"/>
+      <c r="GA1" s="35"/>
+      <c r="GB1" s="35"/>
+      <c r="GC1" s="35"/>
+      <c r="GD1" s="35"/>
+      <c r="GE1" s="35"/>
+      <c r="GF1" s="35"/>
+      <c r="GG1" s="35"/>
     </row>
     <row r="2" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -24856,17 +25283,17 @@
     <sortCondition ref="A3:A28"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="BS1:CF1"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="AK1:BA1"/>
-    <mergeCell ref="T1:AJ1"/>
-    <mergeCell ref="BB1:BR1"/>
     <mergeCell ref="CJ1:CZ1"/>
     <mergeCell ref="DR1:EE1"/>
     <mergeCell ref="FQ1:GG1"/>
     <mergeCell ref="EZ1:FP1"/>
     <mergeCell ref="DA1:DQ1"/>
     <mergeCell ref="EI1:EY1"/>
+    <mergeCell ref="BS1:CF1"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="AK1:BA1"/>
+    <mergeCell ref="T1:AJ1"/>
+    <mergeCell ref="BB1:BR1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/Serie_historica_2003-2019_subdimensoes_do_IMLEE.xlsx
+++ b/Data/Serie_historica_2003-2019_subdimensoes_do_IMLEE.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/COVIDBR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5841583-DF1D-6A43-8211-8C53E35C4C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8524410-C61F-C44A-91AA-00F73AD03421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMLEE 2003-2019" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="Dimensões 1, 2 e 3" sheetId="5" r:id="rId3"/>
-    <sheet name="1A 1B 1C 2A 2B 2C 3A" sheetId="1" r:id="rId4"/>
+    <sheet name="Dimensões 1, 2 e 3" sheetId="5" r:id="rId2"/>
+    <sheet name="1A 1B 1C 2A 2B 2C 3A" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>UF</t>
   </si>
@@ -200,84 +199,6 @@
   <si>
     <t>AMAPÁ</t>
   </si>
-  <si>
-    <t>Acre</t>
-  </si>
-  <si>
-    <t>Alagoas</t>
-  </si>
-  <si>
-    <t>Amapá</t>
-  </si>
-  <si>
-    <t>Amazonas</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Ceará</t>
-  </si>
-  <si>
-    <t>Goiás</t>
-  </si>
-  <si>
-    <t>Maranhão</t>
-  </si>
-  <si>
-    <t>Pará</t>
-  </si>
-  <si>
-    <t>Paraíba</t>
-  </si>
-  <si>
-    <t>Paraná</t>
-  </si>
-  <si>
-    <t>Pernambuco</t>
-  </si>
-  <si>
-    <t>Piauí</t>
-  </si>
-  <si>
-    <t>Rondônia</t>
-  </si>
-  <si>
-    <t>Roraima</t>
-  </si>
-  <si>
-    <t>Sergipe</t>
-  </si>
-  <si>
-    <t>Tocantins</t>
-  </si>
-  <si>
-    <t>Mato Grosso do Sul</t>
-  </si>
-  <si>
-    <t>Mato Grosso</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Rio Grande do Norte</t>
-  </si>
-  <si>
-    <t>Rio Grande do Sul</t>
-  </si>
-  <si>
-    <t>Santa Catarina</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Minas Gerais</t>
-  </si>
-  <si>
-    <t>Espírito Santo</t>
-  </si>
 </sst>
 </file>
 
@@ -287,7 +208,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,12 +254,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -544,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,15 +529,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -635,8 +541,15 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2715,201 +2628,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF75950-626A-5A48-9D38-8CD2E68B1128}">
-  <dimension ref="A1:V26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:T26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8527CD3B-F6CC-4691-88A0-112D48E4BE48}">
   <dimension ref="A1:BA31"/>
   <sheetViews>
@@ -8879,7 +8597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:GG29"/>
   <sheetViews>
@@ -8896,44 +8614,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:189" x14ac:dyDescent="0.2">
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="31" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="33"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="37"/>
       <c r="AK1" s="29" t="s">
         <v>29</v>
       </c>
@@ -8952,7 +8670,7 @@
       <c r="AX1" s="30"/>
       <c r="AY1" s="30"/>
       <c r="AZ1" s="30"/>
-      <c r="BA1" s="34"/>
+      <c r="BA1" s="31"/>
       <c r="BB1" s="29" t="s">
         <v>30</v>
       </c>
@@ -8971,7 +8689,7 @@
       <c r="BO1" s="30"/>
       <c r="BP1" s="30"/>
       <c r="BQ1" s="30"/>
-      <c r="BR1" s="34"/>
+      <c r="BR1" s="31"/>
       <c r="BS1" s="29" t="s">
         <v>31</v>
       </c>
@@ -9009,7 +8727,7 @@
       <c r="CW1" s="30"/>
       <c r="CX1" s="30"/>
       <c r="CY1" s="30"/>
-      <c r="CZ1" s="34"/>
+      <c r="CZ1" s="31"/>
       <c r="DA1" s="29" t="s">
         <v>33</v>
       </c>
@@ -9028,7 +8746,7 @@
       <c r="DN1" s="30"/>
       <c r="DO1" s="30"/>
       <c r="DP1" s="30"/>
-      <c r="DQ1" s="34"/>
+      <c r="DQ1" s="31"/>
       <c r="DR1" s="30" t="s">
         <v>34</v>
       </c>
@@ -9066,45 +8784,45 @@
       <c r="EV1" s="30"/>
       <c r="EW1" s="30"/>
       <c r="EX1" s="30"/>
-      <c r="EY1" s="34"/>
-      <c r="EZ1" s="36" t="s">
+      <c r="EY1" s="31"/>
+      <c r="EZ1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="FA1" s="37"/>
-      <c r="FB1" s="37"/>
-      <c r="FC1" s="37"/>
-      <c r="FD1" s="37"/>
-      <c r="FE1" s="37"/>
-      <c r="FF1" s="37"/>
-      <c r="FG1" s="37"/>
-      <c r="FH1" s="37"/>
-      <c r="FI1" s="37"/>
-      <c r="FJ1" s="37"/>
-      <c r="FK1" s="37"/>
-      <c r="FL1" s="37"/>
-      <c r="FM1" s="37"/>
-      <c r="FN1" s="37"/>
-      <c r="FO1" s="37"/>
-      <c r="FP1" s="37"/>
-      <c r="FQ1" s="35" t="s">
+      <c r="FA1" s="34"/>
+      <c r="FB1" s="34"/>
+      <c r="FC1" s="34"/>
+      <c r="FD1" s="34"/>
+      <c r="FE1" s="34"/>
+      <c r="FF1" s="34"/>
+      <c r="FG1" s="34"/>
+      <c r="FH1" s="34"/>
+      <c r="FI1" s="34"/>
+      <c r="FJ1" s="34"/>
+      <c r="FK1" s="34"/>
+      <c r="FL1" s="34"/>
+      <c r="FM1" s="34"/>
+      <c r="FN1" s="34"/>
+      <c r="FO1" s="34"/>
+      <c r="FP1" s="34"/>
+      <c r="FQ1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="FR1" s="35"/>
-      <c r="FS1" s="35"/>
-      <c r="FT1" s="35"/>
-      <c r="FU1" s="35"/>
-      <c r="FV1" s="35"/>
-      <c r="FW1" s="35"/>
-      <c r="FX1" s="35"/>
-      <c r="FY1" s="35"/>
-      <c r="FZ1" s="35"/>
-      <c r="GA1" s="35"/>
-      <c r="GB1" s="35"/>
-      <c r="GC1" s="35"/>
-      <c r="GD1" s="35"/>
-      <c r="GE1" s="35"/>
-      <c r="GF1" s="35"/>
-      <c r="GG1" s="35"/>
+      <c r="FR1" s="32"/>
+      <c r="FS1" s="32"/>
+      <c r="FT1" s="32"/>
+      <c r="FU1" s="32"/>
+      <c r="FV1" s="32"/>
+      <c r="FW1" s="32"/>
+      <c r="FX1" s="32"/>
+      <c r="FY1" s="32"/>
+      <c r="FZ1" s="32"/>
+      <c r="GA1" s="32"/>
+      <c r="GB1" s="32"/>
+      <c r="GC1" s="32"/>
+      <c r="GD1" s="32"/>
+      <c r="GE1" s="32"/>
+      <c r="GF1" s="32"/>
+      <c r="GG1" s="32"/>
     </row>
     <row r="2" spans="1:189" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -25283,17 +25001,17 @@
     <sortCondition ref="A3:A28"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="BS1:CF1"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="AK1:BA1"/>
+    <mergeCell ref="T1:AJ1"/>
+    <mergeCell ref="BB1:BR1"/>
     <mergeCell ref="CJ1:CZ1"/>
     <mergeCell ref="DR1:EE1"/>
     <mergeCell ref="FQ1:GG1"/>
     <mergeCell ref="EZ1:FP1"/>
     <mergeCell ref="DA1:DQ1"/>
     <mergeCell ref="EI1:EY1"/>
-    <mergeCell ref="BS1:CF1"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="AK1:BA1"/>
-    <mergeCell ref="T1:AJ1"/>
-    <mergeCell ref="BB1:BR1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
